--- a/data/hotels_by_city/Dallas/Dallas_shard_153.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_153.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="370">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Chrystine D</t>
+  </si>
+  <si>
     <t>06/07/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>A 70 year-old lady traveling cross-country in an unfamiliar car. What could go wrong? Well, sit down, children, and let me tell you. I had such great experiences with this chain in the past that I didn't hesitate to book here on my cross country trip. The rooms are clean (usually), it looked the same as the nice one I had stayed at in Baton Rouge, so I booked and paid for it online. I arrived at about 7 PM, to find the office unmanned and locked up. One of the residents, who was outside smoking, told me to use the phone that she pointed out to me .. otherwise I wouldn't have had a clue WHAT to do. The woman who answered (MeMe) seemed put out and told me that the office closed at 5PM. This was not mentioned when I booked, and as I was driving a recently-purchased, vintage car, I had some car trouble on the road. She came down and checked me in, and after saying that car trouble wasn't her fault, repeatedly told me that the office closed at 5, which was starting to make me feel that I was putting her out in some way. She mentioned it  several times, and I was beginning to think that, because I had to spend $1000 on a new radiator and lost half a day of my trip, which might make me miss a VERY important event,...A 70 year-old lady traveling cross-country in an unfamiliar car. What could go wrong? Well, sit down, children, and let me tell you. I had such great experiences with this chain in the past that I didn't hesitate to book here on my cross country trip. The rooms are clean (usually), it looked the same as the nice one I had stayed at in Baton Rouge, so I booked and paid for it online. I arrived at about 7 PM, to find the office unmanned and locked up. One of the residents, who was outside smoking, told me to use the phone that she pointed out to me .. otherwise I wouldn't have had a clue WHAT to do. The woman who answered (MeMe) seemed put out and told me that the office closed at 5PM. This was not mentioned when I booked, and as I was driving a recently-purchased, vintage car, I had some car trouble on the road. She came down and checked me in, and after saying that car trouble wasn't her fault, repeatedly told me that the office closed at 5, which was starting to make me feel that I was putting her out in some way. She mentioned it  several times, and I was beginning to think that, because I had to spend $1000 on a new radiator and lost half a day of my trip, which might make me miss a VERY important event, that I did it just to annoy her? Well, yeah, of course I did! No empathy at all. I got to my room, which was great... that is, until I opened the fridge and watched a cockroach saunter between the fridge and freezer doors. Well, I was there for the night, so I got my laundry together (I was wearing my last set of clean clothes), and proceeded to the laundry room. In the other Crosslands, there were credit card slots to use on the washers and dryers. Same here, only when I tried to use it, it was "offline". It would only take quarters. Sorry, folks, at $2 per load to wash and the same to dry, I don't carry that kind of change. So, again, the resident I called MeMe only to be told yet again that the office closed at 5 and she didn't have any quarters. No answer to the question as to if they could be rebooted or anything. Okay, I can take a lot, pretty tough for an old lady, but at this point I broke down crying. Bless her heart, Pat, the resident, offered to give me quarters, but I didn't have small enough bills and she didn't have any other change. I am still wearing the same dirty clothes, two days later, because of yet another car problem (not Crossland's fault, but it all adds up), and the motel that I stayed at after my two-tire blow out didn't have...More</t>
   </si>
   <si>
+    <t>Clyde C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r527018383-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -231,6 +237,9 @@
     <t>We were passing through on a cross-country road trip and just needed somewhere safe and somewhat clean to stay for a brief nights sleep and this did not live up to either expectation. Upon arrival the staff were on lunch break during the first hour of check-in; however they were responsive when we called. We were given a key to a room on the second floor. The elevator wasn't working so we climbed the stairs in 105 degree weather with luggage only to find that our room was already occupied and full of luggage. When returning to the office to get a new room the staff were discussing how they could purchase guns with a history of a felony. They gave us a second room promptly. It was on the 3rd floor on the opposite side of the hotel room. Upon opening the door we were flooded with the smell of cigarettes, an overflowing garbage can, and a bed covered in some kind of ash or dirt. They gave us a third room which was not as filthy, but didn't have towels. When we requested towels we were given one that was covered in some kind of brown stain and holes (pictures attached). The inside of the cabinets were filthy (pictures attached). The premises were also dirty with garbage and ashes despite being a smokeless hotel (pictures attached).More</t>
   </si>
   <si>
+    <t>Lindi L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r497750069-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -252,6 +261,9 @@
     <t>I just returned home from staying in Fort Worth. I had made reservations for my stay last week. I had called the reservation number on the website. When I called, I first confirmed what I read on the website...that cats were allowed at the hotel. The person I spoke to confirmed what I read, that cats (and dogs) were allowed for a pet fee ($15 per day). I was ok with that fee. So, I made the reservation and a few minutes after hanging up I received my confirmation email. I showed up to check-in and they gave me a weird look. They asked me when I made the reservation, and I told them last week, that I had an email confirmation for my reservation, and that it should also state that my cat was with me. The lady promptly told me that they didn't allow cats. I said, "Well, the website says that this chain does allow cats and I confirmed it last week when I called and made the reservation." (I guess the number on the website is to a main office and not to the actual hotel.) They told me they had been trying to get that changed, that they had had bad experiences with cats at the hotel. I looked at the clock and it was about 20 minutes till 4 pm (so I could cancel my reservation and not get charged). So, I told them,...I just returned home from staying in Fort Worth. I had made reservations for my stay last week. I had called the reservation number on the website. When I called, I first confirmed what I read on the website...that cats were allowed at the hotel. The person I spoke to confirmed what I read, that cats (and dogs) were allowed for a pet fee ($15 per day). I was ok with that fee. So, I made the reservation and a few minutes after hanging up I received my confirmation email. I showed up to check-in and they gave me a weird look. They asked me when I made the reservation, and I told them last week, that I had an email confirmation for my reservation, and that it should also state that my cat was with me. The lady promptly told me that they didn't allow cats. I said, "Well, the website says that this chain does allow cats and I confirmed it last week when I called and made the reservation." (I guess the number on the website is to a main office and not to the actual hotel.) They told me they had been trying to get that changed, that they had had bad experiences with cats at the hotel. I looked at the clock and it was about 20 minutes till 4 pm (so I could cancel my reservation and not get charged). So, I told them, "I guess I need to cancel my reservation since my cat isn't welcome" (something along that line). They asked me if my cat could use the litter box, scratched things, and if she shed a lot. I told them that she was well-behaved, could use a litter box, I kept her groomed, and I had brought some of her favorite toys, one of which was a scratching board. Then I was asked how long I was staying and I said two nights. They said they'd work with me. I ended up in a room with 2 beds instead of one (at no additional charge). They don't have any do not disturb signs and that made me a little uncomfortable. Well, I was told they didn't have any on hand and would have to look for them. They said housekeeping wouldn't go in since I was there for two nights, but still, I "always" put a do not disturb sign on my door at hotels, whether I'm in the room or not (especially if I'm not there). It makes me feel like I'm protecting my cat. I am an extremely over protective cat mom. I don't know why it was a problem for me to have my cat when I was willing to pay the pet fee and I saw other people with their dogs. I chatted with someone who was staying there (she'd been staying there for awhile I guess) and has a cat, so, um, yeah, why was it a problem for me to have my...More</t>
   </si>
   <si>
+    <t>faa002</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r493863621-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>ChaWanda J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r492564867-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -288,6 +303,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Kaye S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r484960873-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -309,6 +327,9 @@
     <t>There were so many things wrong about this place I should have checked right back out, but was going to give it a chance, exterior not bad looking, newly planted flowers as you pulled in, sign stated new management, "Trip Advisor" recommended sign as you check in, nice front desk women who gave me a "newly remoldeled room" sounds good right? As I entered this updated room the smell was aweful, don't know what it was but had to prop door open to air out. (I think the new laminate floors didn't get aired out)not sure. The room had no mirror anywhere, no microwave, no blanket for bed, broken dirty toilet and nasty curtains. Was happy mgt. quickly added mirror and washed a blanket. As night fell the "vampires" came out, you know the people who sleep all day and party all night. Until 5am I endured party outside my door from the room next to me, doors slamming and fighting. I believe the women at one point was getting knocked around, wanted to call police but was affraid to. Oh, did I mention the pit bull they had that barked all night? I believe these "vampires" have lived there for quite some time, sounds that way from a review I saw from 2016 showing the hand written sign they post or door. So happy to see sun come up and they crawl back Into finding along with the bugs...There were so many things wrong about this place I should have checked right back out, but was going to give it a chance, exterior not bad looking, newly planted flowers as you pulled in, sign stated new management, "Trip Advisor" recommended sign as you check in, nice front desk women who gave me a "newly remoldeled room" sounds good right? As I entered this updated room the smell was aweful, don't know what it was but had to prop door open to air out. (I think the new laminate floors didn't get aired out)not sure. The room had no mirror anywhere, no microwave, no blanket for bed, broken dirty toilet and nasty curtains. Was happy mgt. quickly added mirror and washed a blanket. As night fell the "vampires" came out, you know the people who sleep all day and party all night. Until 5am I endured party outside my door from the room next to me, doors slamming and fighting. I believe the women at one point was getting knocked around, wanted to call police but was affraid to. Oh, did I mention the pit bull they had that barked all night? I believe these "vampires" have lived there for quite some time, sounds that way from a review I saw from 2016 showing the hand written sign they post or door. So happy to see sun come up and they crawl back Into finding along with the bugs crawling around my room. I hope this "new management " can help this place, newly remodeled rooms aren't going to cut it. My advice to corporate, stay a night in room 103 as I did and get rid of the trash.More</t>
   </si>
   <si>
+    <t>Amie T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r479532924-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -327,6 +348,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Karl O G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r468966960-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -348,6 +372,9 @@
     <t>I've been staying here for two months and I've seen issues that plague a lot of economy places I've stayed as I travel a lot Overall it's a nice place to stay for the price but it's also a place where a lot of different people stay and live long term it appears and some families have kids.  That's was my main issue as kids would run along the corridors all hours of the day and night I told management and they did take care of this issue. Other issues were fighting in the rooms but that's not an issue management can prevent. The management was always helpful to me and housekeeping as well.  Carrie is a nice person and a good manager who always tries to help    Yes there are things I'm sure that can get better but when you have people from a cross section all living in one place you're bound to have issues Kudos to the management team and office staff.  Always helpful and with a smile I'll be leaving Thursday and I had a good stay. Would've stayed longer if my contract worked out better with my job. Thanks to all the staff!!Karl O Graham. Room 310More</t>
   </si>
   <si>
+    <t>Leon G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r457225173-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -366,6 +393,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Levi B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r454044881-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -397,6 +427,9 @@
   </si>
   <si>
     <t>October 2016</t>
+  </si>
+  <si>
+    <t>Arnold_Ziffel</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r439148362-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -426,6 +459,9 @@
 It's obvious the neighborhood caters to the long haul driver, because there are countless big rigs lining the roadways parallel parked. Only because these customers are very budget minded is no excuse for abusing...I visited this place recently and was astonished at the lack of maintenance.  I can remember when the whole cluster of hospitality properties was built around there.  It's for the extremely budget minded guest, and intended for extended stay.  You'll get 1/2 a refrigerator, and 1/2 a kitchen range, and a microwave oven, television, bath with shower only, and of course HVAC, and almost a bed or two.The condition of the property is deplorable.  I went up to the 3rd floor on the elevator, only to find the call button completely gone due to vandalism on the 3rd floor.  Everything around this place is needlessly dirty.  Someone has painted the place without masking off non-painted surfaces making it look just generally disheveled and dirty.  But, nothing has been scrubbed down in ages, and there's filth and vermin on the walls in common areas and rental spaces too!The room condition was borderline acceptable, but still it hasn't been thoroughly cleaned since Jesus was in diapers.   Being poor does not require that one be dirty, and this place could care less about cleaning.  Of course they'll claim that keeps their prices down, but other innkeepers charging the same amount don't let their properties erode like this.It's obvious the neighborhood caters to the long haul driver, because there are countless big rigs lining the roadways parallel parked. Only because these customers are very budget minded is no excuse for abusing them with a property no better cared for than THIS!No, I'm sorry I couldn't recommend this dump to anyone, as there are other extended stay brands within view, that care a little more about their property.  It's plenty obvious that nobody cares about this one, and buyer beware, unless you're content to live in filth.More</t>
   </si>
   <si>
+    <t>Britt0328</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r436208973-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -442,6 +478,9 @@
   </si>
   <si>
     <t>We were in town for the NASCAR race and if I could give this a 0 star I would. I am not a hard person to please, but this was beyond horrible. All I ask for in a hotel room is for it to be clean and not have to worry about catching any diseases or having to have or get a tetanus shot. The rooms were dirty, old, and smelled like smoke. They had windows covered up with wood. It probably cost more time and money to cut the wood to fit the window than to replace the window. People were living in this hotel, which is not usually a big deal, people live in hotels all the time it was just the smells I could not get over. I should've taken pictures of the inside of the room. They had a bed, small table with not chairs, old tv, and amenities should you need to cook. Not a clue about pots or pans I didn't get that far. The bathroom floor had bugs on them and the wall paper or wall or whatever you wanna call it looked like it would fall apart any minute. I would not recommend this place to anyone. It was so bad that we didn't even stay at this hotel we stayed at a different one. I have never bounced out on a hotel stay. Once I am committed I usually stay. This...We were in town for the NASCAR race and if I could give this a 0 star I would. I am not a hard person to please, but this was beyond horrible. All I ask for in a hotel room is for it to be clean and not have to worry about catching any diseases or having to have or get a tetanus shot. The rooms were dirty, old, and smelled like smoke. They had windows covered up with wood. It probably cost more time and money to cut the wood to fit the window than to replace the window. People were living in this hotel, which is not usually a big deal, people live in hotels all the time it was just the smells I could not get over. I should've taken pictures of the inside of the room. They had a bed, small table with not chairs, old tv, and amenities should you need to cook. Not a clue about pots or pans I didn't get that far. The bathroom floor had bugs on them and the wall paper or wall or whatever you wanna call it looked like it would fall apart any minute. I would not recommend this place to anyone. It was so bad that we didn't even stay at this hotel we stayed at a different one. I have never bounced out on a hotel stay. Once I am committed I usually stay. This was a first for me leaving before staying. More</t>
+  </si>
+  <si>
+    <t>Jaana K</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r429630692-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -464,6 +503,9 @@
 The room was worn but mostly working. Floor was dirty and our babys feet turned black after a short crowl, mine too, my husband used flip flops all night. There were mold in kitchen cabins and toilets walls were little bit in poor condition, just to name but a few but still we could live with these. Its after all quite typical for your $49 motels. The one thing that pissed me of was the bugs. Because there isn't real door step, only one metsl plate that is loose, all the bugs crowled in! There were all together three crickets and few smaller ones running on the floor. I bet there would have been more if we wouldn't have put towel in front of the floor. With $49 I have never been in motel room with so many...We bought cheap accommodation because Fort Worth was just a "passing through" place. We got the place from Hotels.com and it cost $29. We. Got there, turns out all the free rooms were on 3rd floor and elevator was broken. There were no information of this during the booking. If we wanted first floor room, it cost $20 more, total $49. At this point we should have thought that that its the same price as a big chains like travelodge or americas best value inn, who fix things if they are broken, but we didn't know what was coming so we paid.The room was worn but mostly working. Floor was dirty and our babys feet turned black after a short crowl, mine too, my husband used flip flops all night. There were mold in kitchen cabins and toilets walls were little bit in poor condition, just to name but a few but still we could live with these. Its after all quite typical for your $49 motels. The one thing that pissed me of was the bugs. Because there isn't real door step, only one metsl plate that is loose, all the bugs crowled in! There were all together three crickets and few smaller ones running on the floor. I bet there would have been more if we wouldn't have put towel in front of the floor. With $49 I have never been in motel room with so many bugs! When I went to the reception in the morning complain and to get my extra $20 back, "manager isn't in" and "what can we do to the crickets, nothing!" You can put a decent door step to the first floor rooms, God Damn It!! It's that easy: piece of wood or plastic! This isn't rocket science, you know!!Hotel managers neglectic attitude actually could be seen from far because on the front yard there were the same trash when we came and when we left. Nobody cares, they just want your money, rip you off. With the $49 you can get some kind of breakfast from Travelodge or Americas Best Value Inn, but not from here!More</t>
   </si>
   <si>
+    <t>superpero</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r401598773-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -488,6 +530,9 @@
     <t>First impression was the hotel is dirty and in need of maintenance.  The elevator and passageways look as if they have not been cleaned in months.  No call button for the elevator on the third floor.  The room smoke detector was wrapped in a plastic bag.  No lights in the stairwell.  Shower head shooting water up on the wall.  Bring yor own towels because the provided towels are old and very flimsy.  The front desk staff is not helpful.  I asked for some pots and pans and was told to call the next day and ask.  She outright refused to check if there were any for checkout. Could not use kitchenette because of no dishes, silverware or pots.  One good thing was that the room was clean and looked renovated.  Old tube tv though.  I will never stay here again.More</t>
   </si>
   <si>
+    <t>Gazi Saif U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r381541048-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -512,6 +557,9 @@
     <t>That motel was not that great, can call just ok. their rooms are very old and had bad odor. we got smoking smell from non smoking room. bathroom door couldnt close. lift wasnot working from 3rd floor on the way to  down stair. stairs are with bad odor.More</t>
   </si>
   <si>
+    <t>Leroy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r356448763-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -530,6 +578,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Algernon T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r267140013-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -578,6 +629,9 @@
     <t>I spent 4 nights here and it was pretty clean except for the beginning.  The rooms are very small and the beds are bare bones but there is a kitchenette with a refrigerator, stove, microwave, and kitchen sink.  The area is very quite with not too many people hanging out to make it uncomfortable.  This is a bare bones hotel with a laundomat also.  Everything went smooth with the exception of the first day.  The first room I was assigned had a huge bubble of water on the ceiling and when I closed the door the bubble popped and got me wet.  The Staff were all very helpfull especially the Manager Zack who personally took care of the problem quickly.  They even washed my wet jacket.  The property was pretty clean and the elevator in good working order.More</t>
   </si>
   <si>
+    <t>sleopold40</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r242083274-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -597,6 +651,9 @@
   </si>
   <si>
     <t>This place looks nice on the outside, but as soon as I opened the door to my room, my heart sank. It had old furniture, old outdated TV, kitchenette area was worn and cabinetry was peeling, carpet was dirty and old and outdated.the carpet looked as if there had been a flood from the restroom and they were not able to clean it up.  The carpet also had different color spots/stains in different spots like a child hadbeen using different color magic markers as there were also colored magic marker writing on the wall behind the door. The walls were very dirty. The table chairs were cracked and you could see the material sticking out. The bed slept comfortably and did not smell nor did the room, it was just dark.  There were NO roaches or bed bugs. The ac was good, bathroom was good and supply of towels were fine. The frontb desk guy was VERY nice, but Jesus is no longer there. We felt safe there and the area is nice. There are a total of 9 hotels and all are within walking distance of each other, but I won't stay at this one again.  I read the reviews but I usually get lucky because the places aren't as bad as people say, but sadly this is the worst we have encountered. They will ask for a credit card just in case of incidentals, but it did not...This place looks nice on the outside, but as soon as I opened the door to my room, my heart sank. It had old furniture, old outdated TV, kitchenette area was worn and cabinetry was peeling, carpet was dirty and old and outdated.the carpet looked as if there had been a flood from the restroom and they were not able to clean it up.  The carpet also had different color spots/stains in different spots like a child hadbeen using different color magic markers as there were also colored magic marker writing on the wall behind the door. The walls were very dirty. The table chairs were cracked and you could see the material sticking out. The bed slept comfortably and did not smell nor did the room, it was just dark.  There were NO roaches or bed bugs. The ac was good, bathroom was good and supply of towels were fine. The frontb desk guy was VERY nice, but Jesus is no longer there. We felt safe there and the area is nice. There are a total of 9 hotels and all are within walking distance of each other, but I won't stay at this one again.  I read the reviews but I usually get lucky because the places aren't as bad as people say, but sadly this is the worst we have encountered. They will ask for a credit card just in case of incidentals, but it did not hold any funds ...it just makes sure the card was valid ( just in case). Oh WiFi was supposed to be free but we could never get past the home page. No breakfast.More</t>
+  </si>
+  <si>
+    <t>Jojo681</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r237859731-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -637,12 +694,18 @@
 I have no issues with any of the staff but it would be unfair to not single out Chrissy.  She clearly works hard and is accommodating and pleasant. Not o ly that but actually takes time to remember you if your treat her with respect. the entire crew has never left me feeling not taken care of. Zach is to the point but friendly , exactly what you need when it comes to a place like this. In my opinion,  if you have a problem wjth the staff, your probably having a bad day (or possibly...Theres a lot of reviews on here that seem to be people expecting a 5 star hotel. Ive stayed here to many timex to not finally give my input.  Traveling a lot, and staying here a lot, I can say that the service is beyond any other place of this "rating" and the rooms may be small and again (not 5 star quality) .. but you are getting a clean room with a kitchen, and every room ive had has had amazing shower pressure.....what other hotel in this rating category has that?  the tv could use more channels and they did have bad Internet connection but recently fixed that (the internet) and it is now amazing.  Thats my overall point, they work with what they have, which is not horrible to begin with.. and any issue ive seen, they have put effort into fixing.   I have no issues with any of the staff but it would be unfair to not single out Chrissy.  She clearly works hard and is accommodating and pleasant. Not o ly that but actually takes time to remember you if your treat her with respect. the entire crew has never left me feeling not taken care of. Zach is to the point but friendly , exactly what you need when it comes to a place like this. In my opinion,  if you have a problem wjth the staff, your probably having a bad day (or possibly them I suppose) or simply expecting concierge serice at a extended stay .... the location is also perfect.. walking distance to 24hr food , a bar, gas station... all the bad reviews need to take it easy.  Relax, and go have a drink at the bar next door Dont come here expecting a steak on a tv meal budget , and you should be more then happy with your stay.More</t>
   </si>
   <si>
+    <t>Cynthia D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r220250250-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>220250250</t>
   </si>
   <si>
+    <t>Kelly B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r217021215-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -664,6 +727,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Amanda F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r216438652-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -682,6 +748,9 @@
     <t>Upon arriving the overall outside was fine, it looked clean. Checking in was simple enough, although the women was on the phone conversing the entire time. We got our bags and found our room, it was kept neat for the most part, the pillows were tiny and uncomfortable, was the only issue with the bed, there were hardly any convenient plug ins. And only a night table on one side, the TV had horrible reception barely a few channels that came in. The internet was just as bad, it would not connect to my cell or laptop inside or out maybe a bar then it would disappear. The fridge/freezer had frost every where but kept things cool overall. The residents were very disturbing and unfriendly, and extremely noisy. All night into the hours of 3-4am even we had non stop slamming of doors and people screaming, and a few times a car alarm going off. At one point what sounded to be laws asking about a dispute between the people upstairs. And lastly, we finally fell asleep only to be woken up to a frightening very loud fire alarm that was painful to the ears and it was going through the hole building, we had no idea why, or any heads up what so ever. We decided to not stay the extra night and packed up and went home instead, we had booked the days for our one year anniversary,...Upon arriving the overall outside was fine, it looked clean. Checking in was simple enough, although the women was on the phone conversing the entire time. We got our bags and found our room, it was kept neat for the most part, the pillows were tiny and uncomfortable, was the only issue with the bed, there were hardly any convenient plug ins. And only a night table on one side, the TV had horrible reception barely a few channels that came in. The internet was just as bad, it would not connect to my cell or laptop inside or out maybe a bar then it would disappear. The fridge/freezer had frost every where but kept things cool overall. The residents were very disturbing and unfriendly, and extremely noisy. All night into the hours of 3-4am even we had non stop slamming of doors and people screaming, and a few times a car alarm going off. At one point what sounded to be laws asking about a dispute between the people upstairs. And lastly, we finally fell asleep only to be woken up to a frightening very loud fire alarm that was painful to the ears and it was going through the hole building, we had no idea why, or any heads up what so ever. We decided to not stay the extra night and packed up and went home instead, we had booked the days for our one year anniversary, to be alone. Mostly it was alright for the price, but I'd never pay over what we did.More</t>
   </si>
   <si>
+    <t>lalisk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r214097645-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -697,6 +766,9 @@
     <t>It was so old, dirty,  it had body odor smell,  spiders inside, I just check the bed to see if there was a Surprise there... yeah hairs that is a place where I will never go again or definitely not recommend.  Took my wife and kids and got a room somewhere else same price but excellent conditions,  clean, bigger, nice, comfortable. ... won't do an online reservation again unless I know the place.</t>
   </si>
   <si>
+    <t>AquamomTx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r211733156-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -712,6 +784,9 @@
     <t xml:space="preserve">This place offers a low rate for a reason. I felt scared to be out of my room before 6am and after 7pm. The staff is extremely helpful and kind but they cant make this hotel a palace. The grounds were a mess, some of the residents were very frightening. I was on edge the time. I had asked for an extended stay but left after 2 nights. </t>
   </si>
   <si>
+    <t>Misspm69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r210169232-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -734,6 +809,9 @@
   </si>
   <si>
     <t>Chrissy has excellent interpersonal &amp; customer service skills. Ms Chrissy was very professional with her answers to all my questions and confirmed my reserversation Because of her I will be back  to stay at your hotel many times over. She helped make this stay very enjoyable.  Thank you Chrissy Ms MosdMore</t>
+  </si>
+  <si>
+    <t>Cody S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r208422330-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -765,6 +843,9 @@
 When we first checked in, which was quick and the counter staff was very friendly, we were given a non-smoking room, but once we arrived in our room, it was oblivious that someone had been doing A LOT of smoking in there.  A quick call and they changed our rooms, this time the room smelled nice and fresh, but there was still a hint of smoke smell.  I know that they can not always police the no smoking policy, but they should disinfect better once they realize that the room has been smoked in.   We were on the second floor and did not hear anything from the rooms on either side of us or...We stayed at the Crossland Studios for 1 night and was only looking for a clean place to sleep.  We didn't "need" anything other than a bed.  That being said, that is just about you get here, but the bed was super comfortable, only a double, but it worked.  The room came with a mini kitchen area, which if you are looking for that, would of been great.  The kitchen had flat wear, utensils, pots, plates, a bowl, a few glasses and ice trays in the mini fridge.  There was no pool, no exercise room, and no ice machine, however, they did have free Wifi, an older tube TV with several channels, nothing for a toddler, and plenty of towels, which were very basic white towels. When we first checked in, which was quick and the counter staff was very friendly, we were given a non-smoking room, but once we arrived in our room, it was oblivious that someone had been doing A LOT of smoking in there.  A quick call and they changed our rooms, this time the room smelled nice and fresh, but there was still a hint of smoke smell.  I know that they can not always police the no smoking policy, but they should disinfect better once they realize that the room has been smoked in.   We were on the second floor and did not hear anything from the rooms on either side of us or from above us, so that was a plus.  The room furnishings were dated and showed a lot of wear, but everything served it's purpose.  If there is going to be more than one person, be advised that there isn't much storage space for your belongings, both in the main room and the bathroom.  The bedding was clean, but I did notice a small burn hole in one of the sheets.  The entire room seemed to be very clean and the carpet seemed newer than the rest of the room.  Check out was a breeze and the staff was again friendly and even requested that we provide a review on Tripadvisor.  Overall the 2 star rating for this property seems on par and the room served it's purpose.More</t>
   </si>
   <si>
+    <t>RayMcclain</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r201468807-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -798,6 +879,9 @@
     <t xml:space="preserve">No place to put things in restroom except on sink railing or toilet tank top. There was a plunger in there and needed it. Toilet refilled often, like flushing noise. Internet was intermittent and constant ads. No iron in room, no ironing board available. Housekeeping did not come during four night stay,  one light didnt work by open closet shelf, lamps by beds flickered and switch was "tempermental". </t>
   </si>
   <si>
+    <t>David S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r190143258-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -822,6 +906,9 @@
     <t>Darla at the Desk was so pleasant to deal with. The Wifi wasn't working and she got right on it &amp; in 2 hrs it was on. I appreciated that. I was so happy that this will be my hotel in Ft Worth to stay when available.More</t>
   </si>
   <si>
+    <t>dougmoore777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r186916900-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -846,6 +933,9 @@
     <t>I really enjoy staying at Crossland Hotel and anytime i am in need of a hotel its my top choice. The staff and the rooms accomidations like the kitchenettes make the stay more like home than at a hotel.More</t>
   </si>
   <si>
+    <t>Lilly B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r183861328-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -867,6 +957,9 @@
     <t>well i used to love this motel the people that work there are really great especially chrissy at the front desk . The manager darla was also very nice i used to stay there all the time until recently i stayed the nite actually two nights and i called up there after them nights to see if they had a room and i was informed that i have a DNR on my name which is ridiculous cause they said i stole some pillows and grounded food in the carpet. First of all i have my own pillows at my home i haved stayed at this motel over 50 to 70 nights paying full price every night and have never be told that i stole anything out of them rooms every so why would i start now especially if i was still planning to stay there several more times. There is nicer motels in that same area that has around the same prices but i still chose every time to stay at the crosslands because of the workers that have been so kind to me in my many stays and i have stayed at several of the other ones that have nice people working for them but here it was different but unfortunetly i will not be staying there again but i just wanted them to know that maybe they need to look at the people that clean up the rooms...well i used to love this motel the people that work there are really great especially chrissy at the front desk . The manager darla was also very nice i used to stay there all the time until recently i stayed the nite actually two nights and i called up there after them nights to see if they had a room and i was informed that i have a DNR on my name which is ridiculous cause they said i stole some pillows and grounded food in the carpet. First of all i have my own pillows at my home i haved stayed at this motel over 50 to 70 nights paying full price every night and have never be told that i stole anything out of them rooms every so why would i start now especially if i was still planning to stay there several more times. There is nicer motels in that same area that has around the same prices but i still chose every time to stay at the crosslands because of the workers that have been so kind to me in my many stays and i have stayed at several of the other ones that have nice people working for them but here it was different but unfortunetly i will not be staying there again but i just wanted them to know that maybe they need to look at the people that clean up the rooms cause i have never taken anything except maybe a wash rag but other then that nothing never done it before and wouldnt do it now cause i was still planning on staying there plenty more nights and im not that kind of person never had any other of the motels ever put a DNR on my name in the past or present i have spent plenty of money here sometimes renting two rooms at one time for my sister but i paid for both rooms . My name is Lilly Bowen from fort worth texasMore</t>
   </si>
   <si>
+    <t>MGPHAAS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r150404122-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -894,6 +987,9 @@
     <t>stayed here due to cost but would never stay again because of the quality and i expected them to have a hairdryer but didnt even have one to borrow , room looked like the door at one time had been broken into , it was clean for the most part just not desirable...More</t>
   </si>
   <si>
+    <t>Avillalobos255</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r145266297-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -918,6 +1014,9 @@
     <t>Great staff, they know most people by name! It helps to feel more at home, they always do their best to make you feel great! They always accommodate to my preferences. Rooms are always clean maintained and very well kept! More</t>
   </si>
   <si>
+    <t>afhick</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r144750345-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -945,6 +1044,9 @@
     <t>This hotel is awesome. They say you get what you pay for, but in this case, it's not true. The rooms were comfortable, VERY clean, and everything was ready for us when we arrived. They had our rooms ready and we were able to check in at 10am rather than 3pm. Darla and Samantha were VERY helpful. A situation happened with a couple of pranksers and flooded out the room. They gave us money to use the laundry facility and during NASCAR weekend were able to assist us in getting 2 more rooms. The staff is very friendly. It's about a $20 dollar cab ride to the stockyards, and shuttle service is not available...But even with the $40 round trip taxi, it's cheaper than staying at a hotel with shuttle service. The area is surrounded by hotels, and you are within walking distance (200-300yds) from Redneck Heaven, Roadhouse, and IHOP, and you're a stone's throw away from Waffle House. I won't stay anywhere else in Fort Worth as long as Ms. Darla is the manager. She runs a tight shop. The staff doesn't just come in and make the donuts. They take pride in their hotel and will do anything within their power to ensure the guests have a 5 star experience.More</t>
   </si>
   <si>
+    <t>ButterCups2002</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r142708979-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -969,6 +1071,9 @@
     <t>From the very beginning I felt welcome and taken care of. The manager checked me in on her birthday with a million things going on in the office and never missed a step. Every night I have extended she has greeted me with a smile and by name.  I will not be staying anywhere else from mow on when I come to Fossil Creek. ;)More</t>
   </si>
   <si>
+    <t>camilla00</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r141664479-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -990,6 +1095,9 @@
     <t>After a hotwire mistake at another establishment, I decided to try this property since it was right next door. I was a bit skeptical because it was super cheap, but the outside appearance made me feel a bit better. The check in was smooth and fast. However, once I entered my room I instantly turned back around to check out. The room was small ann uncleanly. Definitely looked like an environment for "working" ladies. Definitely not a place I felt comfortable putting my things down, less known sleeping in.More</t>
   </si>
   <si>
+    <t>acaciaruth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r14159977-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1006,6 +1114,9 @@
   </si>
   <si>
     <t>February 2008</t>
+  </si>
+  <si>
+    <t>DanoHB</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r10013027-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1531,43 +1642,47 @@
       <c r="A2" t="n">
         <v>37422</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>127624</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>2</v>
@@ -1585,56 +1700,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37422</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>78493</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -1654,7 +1773,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1667,37 +1786,37 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1711,50 +1830,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37422</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>127625</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1774,50 +1897,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37422</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>127626</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1831,50 +1958,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37422</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>127627</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1888,50 +2019,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37422</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>127628</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1949,50 +2084,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37422</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>127629</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="O9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2006,50 +2145,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37422</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>127630</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2063,50 +2206,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37422</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>44593</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2120,50 +2267,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37422</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>127631</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2177,7 +2328,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -2190,37 +2341,37 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
@@ -2238,50 +2389,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37422</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>40909</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="O14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P14" t="n">
         <v>1</v>
@@ -2301,50 +2456,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37422</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>127632</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="O15" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2358,50 +2517,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37422</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>127633</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="O16" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2415,50 +2578,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37422</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>127634</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -2476,47 +2643,51 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="X17" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="Y17" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37422</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>127635</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
@@ -2533,56 +2704,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="X18" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="Y18" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37422</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>72703</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="O19" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2596,50 +2771,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37422</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>127636</v>
+      </c>
+      <c r="C20" t="s">
+        <v>184</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="O20" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2657,56 +2836,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="X20" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37422</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>127633</v>
+      </c>
+      <c r="C21" t="s">
+        <v>159</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="K21" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="O21" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -2726,50 +2909,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37422</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>127637</v>
+      </c>
+      <c r="C22" t="s">
+        <v>201</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="J22" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="L22" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="O22" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2783,41 +2970,45 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37422</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>127638</v>
+      </c>
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="J23" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
@@ -2846,7 +3037,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24">
@@ -2859,37 +3050,37 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="J24" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="K24" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -2909,32 +3100,36 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37422</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>28576</v>
+      </c>
+      <c r="C25" t="s">
+        <v>222</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="J25" t="s"/>
       <c r="K25" t="s"/>
@@ -2951,51 +3146,52 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
-      <c r="Y25" t="s"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37422</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>1820</v>
+      </c>
+      <c r="C26" t="s">
+        <v>225</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="J26" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="K26" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="O26" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3013,50 +3209,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37422</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>3925</v>
+      </c>
+      <c r="C27" t="s">
+        <v>233</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="J27" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="K27" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="L27" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="O27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3076,41 +3276,45 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37422</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>127639</v>
+      </c>
+      <c r="C28" t="s">
+        <v>240</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="J28" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="K28" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
@@ -3139,41 +3343,45 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37422</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>127640</v>
+      </c>
+      <c r="C29" t="s">
+        <v>246</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="J29" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="K29" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
@@ -3202,41 +3410,45 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37422</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>127641</v>
+      </c>
+      <c r="C30" t="s">
+        <v>252</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="J30" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="K30" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="L30" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
@@ -3263,56 +3475,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="X30" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="Y30" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37422</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>37702</v>
+      </c>
+      <c r="C31" t="s">
+        <v>261</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="J31" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="K31" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="L31" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="O31" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -3334,56 +3550,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="X31" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="Y31" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37422</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>127642</v>
+      </c>
+      <c r="C32" t="s">
+        <v>271</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="J32" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="K32" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="L32" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3407,7 +3627,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33">
@@ -3420,28 +3640,28 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="J33" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="K33" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
@@ -3470,41 +3690,45 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37422</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>1826</v>
+      </c>
+      <c r="C34" t="s">
+        <v>283</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="J34" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="K34" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
@@ -3531,47 +3755,51 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="X34" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="Y34" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37422</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>127643</v>
+      </c>
+      <c r="C35" t="s">
+        <v>292</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="J35" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="K35" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="L35" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
@@ -3598,56 +3826,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="X35" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="Y35" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37422</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>127644</v>
+      </c>
+      <c r="C36" t="s">
+        <v>301</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="J36" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="K36" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="O36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -3671,50 +3903,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37422</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>127645</v>
+      </c>
+      <c r="C37" t="s">
+        <v>309</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="J37" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="K37" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="L37" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="O37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
@@ -3736,47 +3972,51 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="X37" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="Y37" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37422</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>127646</v>
+      </c>
+      <c r="C38" t="s">
+        <v>319</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="J38" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="K38" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="L38" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
@@ -3803,56 +4043,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="X38" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="Y38" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37422</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>127647</v>
+      </c>
+      <c r="C39" t="s">
+        <v>328</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="J39" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="K39" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="L39" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="O39" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -3874,47 +4118,51 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="X39" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="Y39" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37422</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>127648</v>
+      </c>
+      <c r="C40" t="s">
+        <v>338</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="J40" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="K40" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
@@ -3941,56 +4189,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="X40" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="Y40" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37422</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>127649</v>
+      </c>
+      <c r="C41" t="s">
+        <v>347</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="J41" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="K41" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="L41" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
         <v>4</v>
@@ -4012,56 +4264,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="X41" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="Y41" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37422</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>127650</v>
+      </c>
+      <c r="C42" t="s">
+        <v>355</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="J42" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="K42" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="L42" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="O42" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -4085,50 +4341,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37422</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>127651</v>
+      </c>
+      <c r="C43" t="s">
+        <v>362</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="J43" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="K43" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="L43" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="O43" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -4152,7 +4412,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_153.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_153.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="533">
   <si>
     <t>STR#</t>
   </si>
@@ -147,13 +147,10 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Chrystine D</t>
-  </si>
-  <si>
-    <t>06/07/2018</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r560962534-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r592788720-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>55857</t>
@@ -162,6 +159,30 @@
     <t>109178</t>
   </si>
   <si>
+    <t>592788720</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t>Disaster.</t>
+  </si>
+  <si>
+    <t>I booked this room through Priceline. I was just looking for something clean and comfortable for one night. I trusted .Priceline and was on a tight time schedule, so I failed to read reviews. Flag #1There were people lounging around outside as we prepared to check in, that gave my son and I an uncomfortable feeling.Flag #2 When we checked in the manager gave us a key and asked that we wait while she sent someone in the office with a key to make sure there was no one in the room,Flag #3 Getting even more uncomfortable, my son went to check the room before we took our luggage. It was totally smoke filled with recent smoke (nonsmoking room)We asked the manager if we could cancel. She was very nice and said that was fine and she would credit it back to my card.That never happened. I called back 3 times in the following weeks, never getting to speak to the manager with a promise she would return my call. Never did. I disputed the charge on my card, but it appears I will still have to pay. So disappointed. NEVER AGAIN!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I booked this room through Priceline. I was just looking for something clean and comfortable for one night. I trusted .Priceline and was on a tight time schedule, so I failed to read reviews. Flag #1There were people lounging around outside as we prepared to check in, that gave my son and I an uncomfortable feeling.Flag #2 When we checked in the manager gave us a key and asked that we wait while she sent someone in the office with a key to make sure there was no one in the room,Flag #3 Getting even more uncomfortable, my son went to check the room before we took our luggage. It was totally smoke filled with recent smoke (nonsmoking room)We asked the manager if we could cancel. She was very nice and said that was fine and she would credit it back to my card.That never happened. I called back 3 times in the following weeks, never getting to speak to the manager with a promise she would return my call. Never did. I disputed the charge on my card, but it appears I will still have to pay. So disappointed. NEVER AGAIN!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r560962534-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
     <t>560962534</t>
   </si>
   <si>
@@ -171,7 +192,7 @@
     <t>Nice place to sleep (and nothing else) if you arrive before 5PM</t>
   </si>
   <si>
-    <t>A 70 year-old lady traveling cross-country in an unfamiliar car. What could go wrong? Well, sit down, children, and let me tell you. I had such great experiences with this chain in the past that I didn't hesitate to book here on my cross country trip. The rooms are clean (usually), it looked the same as the nice one I had stayed at in Baton Rouge, so I booked and paid for it online. I arrived at about 7 PM, to find the office unmanned and locked up. One of the residents, who was outside smoking, told me to use the phone that she pointed out to me .. otherwise I wouldn't have had a clue WHAT to do. The woman who answered (MeMe) seemed put out and told me that the office closed at 5PM. This was not mentioned when I booked, and as I was driving a recently-purchased, vintage car, I had some car trouble on the road. She came down and checked me in, and after saying that car trouble wasn't her fault, repeatedly told me that the office closed at 5, which was starting to make me feel that I was putting her out in some way. She mentioned it  several times, and I was beginning to think that, because I had to spend $1000 on a new radiator and lost half a day of my trip, which might make me miss a VERY important event,...A 70 year-old lady traveling cross-country in an unfamiliar car. What could go wrong? Well, sit down, children, and let me tell you. I had such great experiences with this chain in the past that I didn't hesitate to book here on my cross country trip. The rooms are clean (usually), it looked the same as the nice one I had stayed at in Baton Rouge, so I booked and paid for it online. I arrived at about 7 PM, to find the office unmanned and locked up. One of the residents, who was outside smoking, told me to use the phone that she pointed out to me .. otherwise I wouldn't have had a clue WHAT to do. The woman who answered (MeMe) seemed put out and told me that the office closed at 5PM. This was not mentioned when I booked, and as I was driving a recently-purchased, vintage car, I had some car trouble on the road. She came down and checked me in, and after saying that car trouble wasn't her fault, repeatedly told me that the office closed at 5, which was starting to make me feel that I was putting her out in some way. She mentioned it  several times, and I was beginning to think that, because I had to spend $1000 on a new radiator and lost half a day of my trip, which might make me miss a VERY important event, that I did it just to annoy her? Well, yeah, of course I did! No empathy at all. I got to my room, which was great... that is, until I opened the fridge and watched a cockroach saunter between the fridge and freezer doors. Well, I was there for the night, so I got my laundry together (I was wearing my last set of clean clothes), and proceeded to the laundry room. In the other Crosslands, there were credit card slots to use on the washers and dryers. Same here, only when I tried to use it, it was "offline". It would only take quarters. Sorry, folks, at $2 per load to wash and the same to dry, I don't carry that kind of change. So, again, the resident I called MeMe only to be told yet again that the office closed at 5 and she didn't have any quarters. No answer to the question as to if they could be rebooted or anything. Okay, I can take a lot, pretty tough for an old lady, but at this point I broke down crying. Bless her heart, Pat, the resident, offered to give me quarters, but I didn't have small enough bills and she didn't have any other change. I am still wearing the same dirty clothes, two days later, because of yet another car problem (not Crossland's fault, but it all adds up), and the motel that I stayed at after my two-tire blow out didn't have...MoreShow less</t>
+    <t>A 70 year-old lady traveling cross-country in an unfamiliar car. What could go wrong? Well, sit down, children, and let me tell you. I had such great experiences with this chain in the past that I didn't hesitate to book here on my cross country trip. The rooms are clean (usually), it looked the same as the nice one I had stayed at in Baton Rouge, so I booked and paid for it online. I arrived at about 7 PM, to find the office unmanned and locked up. One of the residents, who was outside smoking, told me to use the phone that she pointed out to me .. otherwise I wouldn't have had a clue WHAT to do. The woman who answered (MeMe) seemed put out and told me that the office closed at 5PM. This was not mentioned when I booked, and as I was driving a recently-purchased, vintage car, I had some car trouble on the road. She came down and checked me in, and after saying that car trouble wasn't her fault, repeatedly told me that the office closed at 5, which was starting to make me feel that I was putting her out in some way. She mentioned it  several times, and I was beginning to think that, because I had to spend $1000 on a new radiator and lost half a day of my trip, which might make me miss a VERY important event,...A 70 year-old lady traveling cross-country in an unfamiliar car. What could go wrong? Well, sit down, children, and let me tell you. I had such great experiences with this chain in the past that I didn't hesitate to book here on my cross country trip. The rooms are clean (usually), it looked the same as the nice one I had stayed at in Baton Rouge, so I booked and paid for it online. I arrived at about 7 PM, to find the office unmanned and locked up. One of the residents, who was outside smoking, told me to use the phone that she pointed out to me .. otherwise I wouldn't have had a clue WHAT to do. The woman who answered (MeMe) seemed put out and told me that the office closed at 5PM. This was not mentioned when I booked, and as I was driving a recently-purchased, vintage car, I had some car trouble on the road. She came down and checked me in, and after saying that car trouble wasn't her fault, repeatedly told me that the office closed at 5, which was starting to make me feel that I was putting her out in some way. She mentioned it  several times, and I was beginning to think that, because I had to spend $1000 on a new radiator and lost half a day of my trip, which might make me miss a VERY important event, that I did it just to annoy her? Well, yeah, of course I did! No empathy at all. I got to my room, which was great... that is, until I opened the fridge and watched a cockroach saunter between the fridge and freezer doors. Well, I was there for the night, so I got my laundry together (I was wearing my last set of clean clothes), and proceeded to the laundry room. In the other Crosslands, there were credit card slots to use on the washers and dryers. Same here, only when I tried to use it, it was "offline". It would only take quarters. Sorry, folks, at $2 per load to wash and the same to dry, I don't carry that kind of change. So, again, the resident I called MeMe only to be told yet again that the office closed at 5 and she didn't have any quarters. No answer to the question as to if they could be rebooted or anything. Okay, I can take a lot, pretty tough for an old lady, but at this point I broke down crying. Bless her heart, Pat, the resident, offered to give me quarters, but I didn't have small enough bills and she didn't have any other change. I am still wearing the same dirty clothes, two days later, because of yet another car problem (not Crossland's fault, but it all adds up), and the motel that I stayed at after my two-tire blow out didn't have laundry. Be sure to check reviews before you book anywhere, but especially here. I will NEVER return here, even if I have to sleep in my car.MoreShow less</t>
   </si>
   <si>
     <t>February 2018</t>
@@ -180,19 +201,16 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Crossland Fort ... F, General Manager at Crossland Economy Studios - Fort Worth - Fossil Creek, responded to this reviewResponded February 20, 2018</t>
+    <t>Crossland Fort ... F, General Manager at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded February 20, 2018</t>
   </si>
   <si>
     <t>Responded February 20, 2018</t>
   </si>
   <si>
-    <t>A 70 year-old lady traveling cross-country in an unfamiliar car. What could go wrong? Well, sit down, children, and let me tell you. I had such great experiences with this chain in the past that I didn't hesitate to book here on my cross country trip. The rooms are clean (usually), it looked the same as the nice one I had stayed at in Baton Rouge, so I booked and paid for it online. I arrived at about 7 PM, to find the office unmanned and locked up. One of the residents, who was outside smoking, told me to use the phone that she pointed out to me .. otherwise I wouldn't have had a clue WHAT to do. The woman who answered (MeMe) seemed put out and told me that the office closed at 5PM. This was not mentioned when I booked, and as I was driving a recently-purchased, vintage car, I had some car trouble on the road. She came down and checked me in, and after saying that car trouble wasn't her fault, repeatedly told me that the office closed at 5, which was starting to make me feel that I was putting her out in some way. She mentioned it  several times, and I was beginning to think that, because I had to spend $1000 on a new radiator and lost half a day of my trip, which might make me miss a VERY important event,...A 70 year-old lady traveling cross-country in an unfamiliar car. What could go wrong? Well, sit down, children, and let me tell you. I had such great experiences with this chain in the past that I didn't hesitate to book here on my cross country trip. The rooms are clean (usually), it looked the same as the nice one I had stayed at in Baton Rouge, so I booked and paid for it online. I arrived at about 7 PM, to find the office unmanned and locked up. One of the residents, who was outside smoking, told me to use the phone that she pointed out to me .. otherwise I wouldn't have had a clue WHAT to do. The woman who answered (MeMe) seemed put out and told me that the office closed at 5PM. This was not mentioned when I booked, and as I was driving a recently-purchased, vintage car, I had some car trouble on the road. She came down and checked me in, and after saying that car trouble wasn't her fault, repeatedly told me that the office closed at 5, which was starting to make me feel that I was putting her out in some way. She mentioned it  several times, and I was beginning to think that, because I had to spend $1000 on a new radiator and lost half a day of my trip, which might make me miss a VERY important event, that I did it just to annoy her? Well, yeah, of course I did! No empathy at all. I got to my room, which was great... that is, until I opened the fridge and watched a cockroach saunter between the fridge and freezer doors. Well, I was there for the night, so I got my laundry together (I was wearing my last set of clean clothes), and proceeded to the laundry room. In the other Crosslands, there were credit card slots to use on the washers and dryers. Same here, only when I tried to use it, it was "offline". It would only take quarters. Sorry, folks, at $2 per load to wash and the same to dry, I don't carry that kind of change. So, again, the resident I called MeMe only to be told yet again that the office closed at 5 and she didn't have any quarters. No answer to the question as to if they could be rebooted or anything. Okay, I can take a lot, pretty tough for an old lady, but at this point I broke down crying. Bless her heart, Pat, the resident, offered to give me quarters, but I didn't have small enough bills and she didn't have any other change. I am still wearing the same dirty clothes, two days later, because of yet another car problem (not Crossland's fault, but it all adds up), and the motel that I stayed at after my two-tire blow out didn't have...More</t>
-  </si>
-  <si>
-    <t>Clyde C</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r527018383-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>A 70 year-old lady traveling cross-country in an unfamiliar car. What could go wrong? Well, sit down, children, and let me tell you. I had such great experiences with this chain in the past that I didn't hesitate to book here on my cross country trip. The rooms are clean (usually), it looked the same as the nice one I had stayed at in Baton Rouge, so I booked and paid for it online. I arrived at about 7 PM, to find the office unmanned and locked up. One of the residents, who was outside smoking, told me to use the phone that she pointed out to me .. otherwise I wouldn't have had a clue WHAT to do. The woman who answered (MeMe) seemed put out and told me that the office closed at 5PM. This was not mentioned when I booked, and as I was driving a recently-purchased, vintage car, I had some car trouble on the road. She came down and checked me in, and after saying that car trouble wasn't her fault, repeatedly told me that the office closed at 5, which was starting to make me feel that I was putting her out in some way. She mentioned it  several times, and I was beginning to think that, because I had to spend $1000 on a new radiator and lost half a day of my trip, which might make me miss a VERY important event,...A 70 year-old lady traveling cross-country in an unfamiliar car. What could go wrong? Well, sit down, children, and let me tell you. I had such great experiences with this chain in the past that I didn't hesitate to book here on my cross country trip. The rooms are clean (usually), it looked the same as the nice one I had stayed at in Baton Rouge, so I booked and paid for it online. I arrived at about 7 PM, to find the office unmanned and locked up. One of the residents, who was outside smoking, told me to use the phone that she pointed out to me .. otherwise I wouldn't have had a clue WHAT to do. The woman who answered (MeMe) seemed put out and told me that the office closed at 5PM. This was not mentioned when I booked, and as I was driving a recently-purchased, vintage car, I had some car trouble on the road. She came down and checked me in, and after saying that car trouble wasn't her fault, repeatedly told me that the office closed at 5, which was starting to make me feel that I was putting her out in some way. She mentioned it  several times, and I was beginning to think that, because I had to spend $1000 on a new radiator and lost half a day of my trip, which might make me miss a VERY important event, that I did it just to annoy her? Well, yeah, of course I did! No empathy at all. I got to my room, which was great... that is, until I opened the fridge and watched a cockroach saunter between the fridge and freezer doors. Well, I was there for the night, so I got my laundry together (I was wearing my last set of clean clothes), and proceeded to the laundry room. In the other Crosslands, there were credit card slots to use on the washers and dryers. Same here, only when I tried to use it, it was "offline". It would only take quarters. Sorry, folks, at $2 per load to wash and the same to dry, I don't carry that kind of change. So, again, the resident I called MeMe only to be told yet again that the office closed at 5 and she didn't have any quarters. No answer to the question as to if they could be rebooted or anything. Okay, I can take a lot, pretty tough for an old lady, but at this point I broke down crying. Bless her heart, Pat, the resident, offered to give me quarters, but I didn't have small enough bills and she didn't have any other change. I am still wearing the same dirty clothes, two days later, because of yet another car problem (not Crossland's fault, but it all adds up), and the motel that I stayed at after my two-tire blow out didn't have laundry. Be sure to check reviews before you book anywhere, but especially here. I will NEVER return here, even if I have to sleep in my car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r527018383-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>527018383</t>
@@ -216,7 +234,7 @@
     <t>Where do I begin!! I guess with "DO NOT BOOK THIS HOTEL"! It is more of a hotel that people are living at for weeks or months. We booked thru booking.com. We got there and the outside didn't look to bad until we pulled into parking lot. People hanging around outside, empty beer cans. Etc. (you get the picture). No one was in office so we waited. The young man came to the front (he was extremely nice). He was very busy. They did not have our reservation thru booking.com even tho I had a confirmation number. He said he had a room so we said okay even tho we getting bad vibes. We went to our room and it was like a closet with a double bed, fridge etc crammed in it. The bed covers and everything looked like something left from the 70's. Had an awful smell. We went directly back to office and the nice young man did cancel everything. We called booking.com and they helped us get a good.place to stay!More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r507813333-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r507813333-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>507813333</t>
@@ -237,10 +255,7 @@
     <t>We were passing through on a cross-country road trip and just needed somewhere safe and somewhat clean to stay for a brief nights sleep and this did not live up to either expectation. Upon arrival the staff were on lunch break during the first hour of check-in; however they were responsive when we called. We were given a key to a room on the second floor. The elevator wasn't working so we climbed the stairs in 105 degree weather with luggage only to find that our room was already occupied and full of luggage. When returning to the office to get a new room the staff were discussing how they could purchase guns with a history of a felony. They gave us a second room promptly. It was on the 3rd floor on the opposite side of the hotel room. Upon opening the door we were flooded with the smell of cigarettes, an overflowing garbage can, and a bed covered in some kind of ash or dirt. They gave us a third room which was not as filthy, but didn't have towels. When we requested towels we were given one that was covered in some kind of brown stain and holes (pictures attached). The inside of the cabinets were filthy (pictures attached). The premises were also dirty with garbage and ashes despite being a smokeless hotel (pictures attached).More</t>
   </si>
   <si>
-    <t>Lindi L</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r497750069-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r497750069-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>497750069</t>
@@ -252,19 +267,16 @@
     <t>Ok, but not the greatest</t>
   </si>
   <si>
-    <t>I just returned home from staying in Fort Worth. I had made reservations for my stay last week. I had called the reservation number on the website. When I called, I first confirmed what I read on the website...that cats were allowed at the hotel. The person I spoke to confirmed what I read, that cats (and dogs) were allowed for a pet fee ($15 per day). I was ok with that fee. So, I made the reservation and a few minutes after hanging up I received my confirmation email. I showed up to check-in and they gave me a weird look. They asked me when I made the reservation, and I told them last week, that I had an email confirmation for my reservation, and that it should also state that my cat was with me. The lady promptly told me that they didn't allow cats. I said, "Well, the website says that this chain does allow cats and I confirmed it last week when I called and made the reservation." (I guess the number on the website is to a main office and not to the actual hotel.) They told me they had been trying to get that changed, that they had had bad experiences with cats at the hotel. I looked at the clock and it was about 20 minutes till 4 pm (so I could cancel my reservation and not get charged). So, I told them,...I just returned home from staying in Fort Worth. I had made reservations for my stay last week. I had called the reservation number on the website. When I called, I first confirmed what I read on the website...that cats were allowed at the hotel. The person I spoke to confirmed what I read, that cats (and dogs) were allowed for a pet fee ($15 per day). I was ok with that fee. So, I made the reservation and a few minutes after hanging up I received my confirmation email. I showed up to check-in and they gave me a weird look. They asked me when I made the reservation, and I told them last week, that I had an email confirmation for my reservation, and that it should also state that my cat was with me. The lady promptly told me that they didn't allow cats. I said, "Well, the website says that this chain does allow cats and I confirmed it last week when I called and made the reservation." (I guess the number on the website is to a main office and not to the actual hotel.) They told me they had been trying to get that changed, that they had had bad experiences with cats at the hotel. I looked at the clock and it was about 20 minutes till 4 pm (so I could cancel my reservation and not get charged). So, I told them, "I guess I need to cancel my reservation since my cat isn't welcome" (something along that line). They asked me if my cat could use the litter box, scratched things, and if she shed a lot. I told them that she was well-behaved, could use a litter box, I kept her groomed, and I had brought some of her favorite toys, one of which was a scratching board. Then I was asked how long I was staying and I said two nights. They said they'd work with me. I ended up in a room with 2 beds instead of one (at no additional charge). They don't have any do not disturb signs and that made me a little uncomfortable. Well, I was told they didn't have any on hand and would have to look for them. They said housekeeping wouldn't go in since I was there for two nights, but still, I "always" put a do not disturb sign on my door at hotels, whether I'm in the room or not (especially if I'm not there). It makes me feel like I'm protecting my cat. I am an extremely over protective cat mom. I don't know why it was a problem for me to have my cat when I was willing to pay the pet fee and I saw other people with their dogs. I chatted with someone who was staying there (she'd been staying there for awhile I guess) and has a cat, so, um, yeah, why was it a problem for me to have my...MoreShow less</t>
+    <t>I just returned home from staying in Fort Worth. I had made reservations for my stay last week. I had called the reservation number on the website. When I called, I first confirmed what I read on the website...that cats were allowed at the hotel. The person I spoke to confirmed what I read, that cats (and dogs) were allowed for a pet fee ($15 per day). I was ok with that fee. So, I made the reservation and a few minutes after hanging up I received my confirmation email. I showed up to check-in and they gave me a weird look. They asked me when I made the reservation, and I told them last week, that I had an email confirmation for my reservation, and that it should also state that my cat was with me. The lady promptly told me that they didn't allow cats. I said, "Well, the website says that this chain does allow cats and I confirmed it last week when I called and made the reservation." (I guess the number on the website is to a main office and not to the actual hotel.) They told me they had been trying to get that changed, that they had had bad experiences with cats at the hotel. I looked at the clock and it was about 20 minutes till 4 pm (so I could cancel my reservation and not get charged). So, I told them,...I just returned home from staying in Fort Worth. I had made reservations for my stay last week. I had called the reservation number on the website. When I called, I first confirmed what I read on the website...that cats were allowed at the hotel. The person I spoke to confirmed what I read, that cats (and dogs) were allowed for a pet fee ($15 per day). I was ok with that fee. So, I made the reservation and a few minutes after hanging up I received my confirmation email. I showed up to check-in and they gave me a weird look. They asked me when I made the reservation, and I told them last week, that I had an email confirmation for my reservation, and that it should also state that my cat was with me. The lady promptly told me that they didn't allow cats. I said, "Well, the website says that this chain does allow cats and I confirmed it last week when I called and made the reservation." (I guess the number on the website is to a main office and not to the actual hotel.) They told me they had been trying to get that changed, that they had had bad experiences with cats at the hotel. I looked at the clock and it was about 20 minutes till 4 pm (so I could cancel my reservation and not get charged). So, I told them, "I guess I need to cancel my reservation since my cat isn't welcome" (something along that line). They asked me if my cat could use the litter box, scratched things, and if she shed a lot. I told them that she was well-behaved, could use a litter box, I kept her groomed, and I had brought some of her favorite toys, one of which was a scratching board. Then I was asked how long I was staying and I said two nights. They said they'd work with me. I ended up in a room with 2 beds instead of one (at no additional charge). They don't have any do not disturb signs and that made me a little uncomfortable. Well, I was told they didn't have any on hand and would have to look for them. They said housekeeping wouldn't go in since I was there for two nights, but still, I "always" put a do not disturb sign on my door at hotels, whether I'm in the room or not (especially if I'm not there). It makes me feel like I'm protecting my cat. I am an extremely over protective cat mom. I don't know why it was a problem for me to have my cat when I was willing to pay the pet fee and I saw other people with their dogs. I chatted with someone who was staying there (she'd been staying there for awhile I guess) and has a cat, so, um, yeah, why was it a problem for me to have my cat there for two nights? Honestly, when I was making the reservation, I hadn't paid too much attention to the fact that they tend to rent rooms to people that are staying in town for a week or more. If you are going to be in the area for that amount of time, go to the Candlewood Suites that is in the same general area. It will cost a little bit more, but I stayed in one last year for 6 weeks (in a different state) and enjoyed it.At any rate, there are several other hotels literally next door to this one (Motel 6, Hampton Inn &amp; Suites, Candlewood, etc.). The good thing is that there is an IHOP, Waffle House, Subway, and a BBQ place within walking distance of the hotel. Also, there is a bus stop, so you could possibly get around Fort Worth without having to do any driving, depending on where you go.MoreShow less</t>
   </si>
   <si>
     <t>June 2017</t>
   </si>
   <si>
-    <t>I just returned home from staying in Fort Worth. I had made reservations for my stay last week. I had called the reservation number on the website. When I called, I first confirmed what I read on the website...that cats were allowed at the hotel. The person I spoke to confirmed what I read, that cats (and dogs) were allowed for a pet fee ($15 per day). I was ok with that fee. So, I made the reservation and a few minutes after hanging up I received my confirmation email. I showed up to check-in and they gave me a weird look. They asked me when I made the reservation, and I told them last week, that I had an email confirmation for my reservation, and that it should also state that my cat was with me. The lady promptly told me that they didn't allow cats. I said, "Well, the website says that this chain does allow cats and I confirmed it last week when I called and made the reservation." (I guess the number on the website is to a main office and not to the actual hotel.) They told me they had been trying to get that changed, that they had had bad experiences with cats at the hotel. I looked at the clock and it was about 20 minutes till 4 pm (so I could cancel my reservation and not get charged). So, I told them,...I just returned home from staying in Fort Worth. I had made reservations for my stay last week. I had called the reservation number on the website. When I called, I first confirmed what I read on the website...that cats were allowed at the hotel. The person I spoke to confirmed what I read, that cats (and dogs) were allowed for a pet fee ($15 per day). I was ok with that fee. So, I made the reservation and a few minutes after hanging up I received my confirmation email. I showed up to check-in and they gave me a weird look. They asked me when I made the reservation, and I told them last week, that I had an email confirmation for my reservation, and that it should also state that my cat was with me. The lady promptly told me that they didn't allow cats. I said, "Well, the website says that this chain does allow cats and I confirmed it last week when I called and made the reservation." (I guess the number on the website is to a main office and not to the actual hotel.) They told me they had been trying to get that changed, that they had had bad experiences with cats at the hotel. I looked at the clock and it was about 20 minutes till 4 pm (so I could cancel my reservation and not get charged). So, I told them, "I guess I need to cancel my reservation since my cat isn't welcome" (something along that line). They asked me if my cat could use the litter box, scratched things, and if she shed a lot. I told them that she was well-behaved, could use a litter box, I kept her groomed, and I had brought some of her favorite toys, one of which was a scratching board. Then I was asked how long I was staying and I said two nights. They said they'd work with me. I ended up in a room with 2 beds instead of one (at no additional charge). They don't have any do not disturb signs and that made me a little uncomfortable. Well, I was told they didn't have any on hand and would have to look for them. They said housekeeping wouldn't go in since I was there for two nights, but still, I "always" put a do not disturb sign on my door at hotels, whether I'm in the room or not (especially if I'm not there). It makes me feel like I'm protecting my cat. I am an extremely over protective cat mom. I don't know why it was a problem for me to have my cat when I was willing to pay the pet fee and I saw other people with their dogs. I chatted with someone who was staying there (she'd been staying there for awhile I guess) and has a cat, so, um, yeah, why was it a problem for me to have my...More</t>
-  </si>
-  <si>
-    <t>faa002</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r493863621-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>I just returned home from staying in Fort Worth. I had made reservations for my stay last week. I had called the reservation number on the website. When I called, I first confirmed what I read on the website...that cats were allowed at the hotel. The person I spoke to confirmed what I read, that cats (and dogs) were allowed for a pet fee ($15 per day). I was ok with that fee. So, I made the reservation and a few minutes after hanging up I received my confirmation email. I showed up to check-in and they gave me a weird look. They asked me when I made the reservation, and I told them last week, that I had an email confirmation for my reservation, and that it should also state that my cat was with me. The lady promptly told me that they didn't allow cats. I said, "Well, the website says that this chain does allow cats and I confirmed it last week when I called and made the reservation." (I guess the number on the website is to a main office and not to the actual hotel.) They told me they had been trying to get that changed, that they had had bad experiences with cats at the hotel. I looked at the clock and it was about 20 minutes till 4 pm (so I could cancel my reservation and not get charged). So, I told them,...I just returned home from staying in Fort Worth. I had made reservations for my stay last week. I had called the reservation number on the website. When I called, I first confirmed what I read on the website...that cats were allowed at the hotel. The person I spoke to confirmed what I read, that cats (and dogs) were allowed for a pet fee ($15 per day). I was ok with that fee. So, I made the reservation and a few minutes after hanging up I received my confirmation email. I showed up to check-in and they gave me a weird look. They asked me when I made the reservation, and I told them last week, that I had an email confirmation for my reservation, and that it should also state that my cat was with me. The lady promptly told me that they didn't allow cats. I said, "Well, the website says that this chain does allow cats and I confirmed it last week when I called and made the reservation." (I guess the number on the website is to a main office and not to the actual hotel.) They told me they had been trying to get that changed, that they had had bad experiences with cats at the hotel. I looked at the clock and it was about 20 minutes till 4 pm (so I could cancel my reservation and not get charged). So, I told them, "I guess I need to cancel my reservation since my cat isn't welcome" (something along that line). They asked me if my cat could use the litter box, scratched things, and if she shed a lot. I told them that she was well-behaved, could use a litter box, I kept her groomed, and I had brought some of her favorite toys, one of which was a scratching board. Then I was asked how long I was staying and I said two nights. They said they'd work with me. I ended up in a room with 2 beds instead of one (at no additional charge). They don't have any do not disturb signs and that made me a little uncomfortable. Well, I was told they didn't have any on hand and would have to look for them. They said housekeeping wouldn't go in since I was there for two nights, but still, I "always" put a do not disturb sign on my door at hotels, whether I'm in the room or not (especially if I'm not there). It makes me feel like I'm protecting my cat. I am an extremely over protective cat mom. I don't know why it was a problem for me to have my cat when I was willing to pay the pet fee and I saw other people with their dogs. I chatted with someone who was staying there (she'd been staying there for awhile I guess) and has a cat, so, um, yeah, why was it a problem for me to have my cat there for two nights? Honestly, when I was making the reservation, I hadn't paid too much attention to the fact that they tend to rent rooms to people that are staying in town for a week or more. If you are going to be in the area for that amount of time, go to the Candlewood Suites that is in the same general area. It will cost a little bit more, but I stayed in one last year for 6 weeks (in a different state) and enjoyed it.At any rate, there are several other hotels literally next door to this one (Motel 6, Hampton Inn &amp; Suites, Candlewood, etc.). The good thing is that there is an IHOP, Waffle House, Subway, and a BBQ place within walking distance of the hotel. Also, there is a bus stop, so you could possibly get around Fort Worth without having to do any driving, depending on where you go.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r493863621-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>493863621</t>
@@ -279,13 +291,7 @@
     <t xml:space="preserve">The front desk staff were very unprofessional and rude. One of the guest that had been living there a while walked up to me to ask if the dog I had with me was mine and then proceeded to tell me that the front desk staff asked him to come be nosey about my pet. The room dirty and smelled bad. </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>ChaWanda J</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r492564867-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r492564867-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>492564867</t>
@@ -303,10 +309,7 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Kaye S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r484960873-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r484960873-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>484960873</t>
@@ -327,10 +330,7 @@
     <t>There were so many things wrong about this place I should have checked right back out, but was going to give it a chance, exterior not bad looking, newly planted flowers as you pulled in, sign stated new management, "Trip Advisor" recommended sign as you check in, nice front desk women who gave me a "newly remoldeled room" sounds good right? As I entered this updated room the smell was aweful, don't know what it was but had to prop door open to air out. (I think the new laminate floors didn't get aired out)not sure. The room had no mirror anywhere, no microwave, no blanket for bed, broken dirty toilet and nasty curtains. Was happy mgt. quickly added mirror and washed a blanket. As night fell the "vampires" came out, you know the people who sleep all day and party all night. Until 5am I endured party outside my door from the room next to me, doors slamming and fighting. I believe the women at one point was getting knocked around, wanted to call police but was affraid to. Oh, did I mention the pit bull they had that barked all night? I believe these "vampires" have lived there for quite some time, sounds that way from a review I saw from 2016 showing the hand written sign they post or door. So happy to see sun come up and they crawl back Into finding along with the bugs...There were so many things wrong about this place I should have checked right back out, but was going to give it a chance, exterior not bad looking, newly planted flowers as you pulled in, sign stated new management, "Trip Advisor" recommended sign as you check in, nice front desk women who gave me a "newly remoldeled room" sounds good right? As I entered this updated room the smell was aweful, don't know what it was but had to prop door open to air out. (I think the new laminate floors didn't get aired out)not sure. The room had no mirror anywhere, no microwave, no blanket for bed, broken dirty toilet and nasty curtains. Was happy mgt. quickly added mirror and washed a blanket. As night fell the "vampires" came out, you know the people who sleep all day and party all night. Until 5am I endured party outside my door from the room next to me, doors slamming and fighting. I believe the women at one point was getting knocked around, wanted to call police but was affraid to. Oh, did I mention the pit bull they had that barked all night? I believe these "vampires" have lived there for quite some time, sounds that way from a review I saw from 2016 showing the hand written sign they post or door. So happy to see sun come up and they crawl back Into finding along with the bugs crawling around my room. I hope this "new management " can help this place, newly remodeled rooms aren't going to cut it. My advice to corporate, stay a night in room 103 as I did and get rid of the trash.More</t>
   </si>
   <si>
-    <t>Amie T</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r479532924-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r479532924-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>479532924</t>
@@ -348,10 +348,7 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>Karl O G</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r468966960-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r468966960-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>468966960</t>
@@ -372,10 +369,7 @@
     <t>I've been staying here for two months and I've seen issues that plague a lot of economy places I've stayed as I travel a lot Overall it's a nice place to stay for the price but it's also a place where a lot of different people stay and live long term it appears and some families have kids.  That's was my main issue as kids would run along the corridors all hours of the day and night I told management and they did take care of this issue. Other issues were fighting in the rooms but that's not an issue management can prevent. The management was always helpful to me and housekeeping as well.  Carrie is a nice person and a good manager who always tries to help    Yes there are things I'm sure that can get better but when you have people from a cross section all living in one place you're bound to have issues Kudos to the management team and office staff.  Always helpful and with a smile I'll be leaving Thursday and I had a good stay. Would've stayed longer if my contract worked out better with my job. Thanks to all the staff!!Karl O Graham. Room 310More</t>
   </si>
   <si>
-    <t>Leon G</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r457225173-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r457225173-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>457225173</t>
@@ -393,10 +387,7 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t>Levi B</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r454044881-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r454044881-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>454044881</t>
@@ -411,7 +402,7 @@
     <t>I have been living here for almost two months now. The staff is amazingly freindly and while the rooms could use a good clean and update. Though they did just put in new full size fridges and flat screen tvs. Over all this is a great place to stay and live if you are looking for a quick bed.</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r443966447-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r443966447-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>443966447</t>
@@ -429,10 +420,7 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t>Arnold_Ziffel</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r439148362-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r439148362-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>439148362</t>
@@ -459,10 +447,7 @@
 It's obvious the neighborhood caters to the long haul driver, because there are countless big rigs lining the roadways parallel parked. Only because these customers are very budget minded is no excuse for abusing...I visited this place recently and was astonished at the lack of maintenance.  I can remember when the whole cluster of hospitality properties was built around there.  It's for the extremely budget minded guest, and intended for extended stay.  You'll get 1/2 a refrigerator, and 1/2 a kitchen range, and a microwave oven, television, bath with shower only, and of course HVAC, and almost a bed or two.The condition of the property is deplorable.  I went up to the 3rd floor on the elevator, only to find the call button completely gone due to vandalism on the 3rd floor.  Everything around this place is needlessly dirty.  Someone has painted the place without masking off non-painted surfaces making it look just generally disheveled and dirty.  But, nothing has been scrubbed down in ages, and there's filth and vermin on the walls in common areas and rental spaces too!The room condition was borderline acceptable, but still it hasn't been thoroughly cleaned since Jesus was in diapers.   Being poor does not require that one be dirty, and this place could care less about cleaning.  Of course they'll claim that keeps their prices down, but other innkeepers charging the same amount don't let their properties erode like this.It's obvious the neighborhood caters to the long haul driver, because there are countless big rigs lining the roadways parallel parked. Only because these customers are very budget minded is no excuse for abusing them with a property no better cared for than THIS!No, I'm sorry I couldn't recommend this dump to anyone, as there are other extended stay brands within view, that care a little more about their property.  It's plenty obvious that nobody cares about this one, and buyer beware, unless you're content to live in filth.More</t>
   </si>
   <si>
-    <t>Britt0328</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r436208973-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r436208973-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>436208973</t>
@@ -480,10 +465,7 @@
     <t>We were in town for the NASCAR race and if I could give this a 0 star I would. I am not a hard person to please, but this was beyond horrible. All I ask for in a hotel room is for it to be clean and not have to worry about catching any diseases or having to have or get a tetanus shot. The rooms were dirty, old, and smelled like smoke. They had windows covered up with wood. It probably cost more time and money to cut the wood to fit the window than to replace the window. People were living in this hotel, which is not usually a big deal, people live in hotels all the time it was just the smells I could not get over. I should've taken pictures of the inside of the room. They had a bed, small table with not chairs, old tv, and amenities should you need to cook. Not a clue about pots or pans I didn't get that far. The bathroom floor had bugs on them and the wall paper or wall or whatever you wanna call it looked like it would fall apart any minute. I would not recommend this place to anyone. It was so bad that we didn't even stay at this hotel we stayed at a different one. I have never bounced out on a hotel stay. Once I am committed I usually stay. This...We were in town for the NASCAR race and if I could give this a 0 star I would. I am not a hard person to please, but this was beyond horrible. All I ask for in a hotel room is for it to be clean and not have to worry about catching any diseases or having to have or get a tetanus shot. The rooms were dirty, old, and smelled like smoke. They had windows covered up with wood. It probably cost more time and money to cut the wood to fit the window than to replace the window. People were living in this hotel, which is not usually a big deal, people live in hotels all the time it was just the smells I could not get over. I should've taken pictures of the inside of the room. They had a bed, small table with not chairs, old tv, and amenities should you need to cook. Not a clue about pots or pans I didn't get that far. The bathroom floor had bugs on them and the wall paper or wall or whatever you wanna call it looked like it would fall apart any minute. I would not recommend this place to anyone. It was so bad that we didn't even stay at this hotel we stayed at a different one. I have never bounced out on a hotel stay. Once I am committed I usually stay. This was a first for me leaving before staying. More</t>
   </si>
   <si>
-    <t>Jaana K</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r429630692-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r429630692-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>429630692</t>
@@ -503,10 +485,7 @@
 The room was worn but mostly working. Floor was dirty and our babys feet turned black after a short crowl, mine too, my husband used flip flops all night. There were mold in kitchen cabins and toilets walls were little bit in poor condition, just to name but a few but still we could live with these. Its after all quite typical for your $49 motels. The one thing that pissed me of was the bugs. Because there isn't real door step, only one metsl plate that is loose, all the bugs crowled in! There were all together three crickets and few smaller ones running on the floor. I bet there would have been more if we wouldn't have put towel in front of the floor. With $49 I have never been in motel room with so many...We bought cheap accommodation because Fort Worth was just a "passing through" place. We got the place from Hotels.com and it cost $29. We. Got there, turns out all the free rooms were on 3rd floor and elevator was broken. There were no information of this during the booking. If we wanted first floor room, it cost $20 more, total $49. At this point we should have thought that that its the same price as a big chains like travelodge or americas best value inn, who fix things if they are broken, but we didn't know what was coming so we paid.The room was worn but mostly working. Floor was dirty and our babys feet turned black after a short crowl, mine too, my husband used flip flops all night. There were mold in kitchen cabins and toilets walls were little bit in poor condition, just to name but a few but still we could live with these. Its after all quite typical for your $49 motels. The one thing that pissed me of was the bugs. Because there isn't real door step, only one metsl plate that is loose, all the bugs crowled in! There were all together three crickets and few smaller ones running on the floor. I bet there would have been more if we wouldn't have put towel in front of the floor. With $49 I have never been in motel room with so many bugs! When I went to the reception in the morning complain and to get my extra $20 back, "manager isn't in" and "what can we do to the crickets, nothing!" You can put a decent door step to the first floor rooms, God Damn It!! It's that easy: piece of wood or plastic! This isn't rocket science, you know!!Hotel managers neglectic attitude actually could be seen from far because on the front yard there were the same trash when we came and when we left. Nobody cares, they just want your money, rip you off. With the $49 you can get some kind of breakfast from Travelodge or Americas Best Value Inn, but not from here!More</t>
   </si>
   <si>
-    <t>superpero</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r401598773-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r401598773-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>401598773</t>
@@ -521,7 +500,7 @@
     <t>First impression was the hotel is dirty and in need of maintenance.  The elevator and passageways look as if they have not been cleaned in months.  No call button for the elevator on the third floor.  The room smoke detector was wrapped in a plastic bag.  No lights in the stairwell.  Shower head shooting water up on the wall.  Bring yor own towels because the provided towels are old and very flimsy.  The front desk staff is not helpful.  I asked for some pots and pans and was told to call the next day and ask.  She outright refused to check if there were any for checkout. Could not use kitchenette because of no dishes, silverware or pots.  One good thing was that the room was clean and looked renovated.  Old tube tv though.  I will never stay here again.MoreShow less</t>
   </si>
   <si>
-    <t>Alyssa B, Public Relations Manager at Crossland Economy Studios - Fort Worth - Fossil Creek, responded to this reviewResponded August 11, 2016</t>
+    <t>Alyssa B, Public Relations Manager at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded August 11, 2016</t>
   </si>
   <si>
     <t>Responded August 11, 2016</t>
@@ -530,10 +509,7 @@
     <t>First impression was the hotel is dirty and in need of maintenance.  The elevator and passageways look as if they have not been cleaned in months.  No call button for the elevator on the third floor.  The room smoke detector was wrapped in a plastic bag.  No lights in the stairwell.  Shower head shooting water up on the wall.  Bring yor own towels because the provided towels are old and very flimsy.  The front desk staff is not helpful.  I asked for some pots and pans and was told to call the next day and ask.  She outright refused to check if there were any for checkout. Could not use kitchenette because of no dishes, silverware or pots.  One good thing was that the room was clean and looked renovated.  Old tube tv though.  I will never stay here again.More</t>
   </si>
   <si>
-    <t>Gazi Saif U</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r381541048-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r381541048-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>381541048</t>
@@ -548,7 +524,7 @@
     <t>That motel was not that great, can call just ok. their rooms are very old and had bad odor. we got smoking smell from non smoking room. bathroom door couldnt close. lift wasnot working from 3rd floor on the way to  down stair. stairs are with bad odor.MoreShow less</t>
   </si>
   <si>
-    <t>Alyssa B, Public Relations Manager at Crossland Economy Studios - Fort Worth - Fossil Creek, responded to this reviewResponded July 13, 2016</t>
+    <t>Alyssa B, Public Relations Manager at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded July 13, 2016</t>
   </si>
   <si>
     <t>Responded July 13, 2016</t>
@@ -557,10 +533,7 @@
     <t>That motel was not that great, can call just ok. their rooms are very old and had bad odor. we got smoking smell from non smoking room. bathroom door couldnt close. lift wasnot working from 3rd floor on the way to  down stair. stairs are with bad odor.More</t>
   </si>
   <si>
-    <t>Leroy L</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r356448763-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r356448763-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>356448763</t>
@@ -578,10 +551,7 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>Algernon T</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r267140013-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r267140013-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>267140013</t>
@@ -599,7 +569,7 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Economy Studios - Fort Worth - Fossil Creek, responded to this reviewResponded May 11, 2015</t>
+    <t>Manager_11525, General Manager at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded May 11, 2015</t>
   </si>
   <si>
     <t>Responded May 11, 2015</t>
@@ -608,7 +578,7 @@
     <t>I love Crosslands.The best thing about this hotel is the staff. They are very nice an helpful. I give them 2 thumbs up! They always make me smile at the front desk! If you need help with anything they will help you out. The place is clean an the housekeeping is great. The area is very safe an nice. Also the price is great for this area.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r244669491-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r244669491-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>244669491</t>
@@ -629,10 +599,7 @@
     <t>I spent 4 nights here and it was pretty clean except for the beginning.  The rooms are very small and the beds are bare bones but there is a kitchenette with a refrigerator, stove, microwave, and kitchen sink.  The area is very quite with not too many people hanging out to make it uncomfortable.  This is a bare bones hotel with a laundomat also.  Everything went smooth with the exception of the first day.  The first room I was assigned had a huge bubble of water on the ceiling and when I closed the door the bubble popped and got me wet.  The Staff were all very helpfull especially the Manager Zack who personally took care of the problem quickly.  They even washed my wet jacket.  The property was pretty clean and the elevator in good working order.More</t>
   </si>
   <si>
-    <t>sleopold40</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r242083274-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r242083274-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>242083274</t>
@@ -653,10 +620,7 @@
     <t>This place looks nice on the outside, but as soon as I opened the door to my room, my heart sank. It had old furniture, old outdated TV, kitchenette area was worn and cabinetry was peeling, carpet was dirty and old and outdated.the carpet looked as if there had been a flood from the restroom and they were not able to clean it up.  The carpet also had different color spots/stains in different spots like a child hadbeen using different color magic markers as there were also colored magic marker writing on the wall behind the door. The walls were very dirty. The table chairs were cracked and you could see the material sticking out. The bed slept comfortably and did not smell nor did the room, it was just dark.  There were NO roaches or bed bugs. The ac was good, bathroom was good and supply of towels were fine. The frontb desk guy was VERY nice, but Jesus is no longer there. We felt safe there and the area is nice. There are a total of 9 hotels and all are within walking distance of each other, but I won't stay at this one again.  I read the reviews but I usually get lucky because the places aren't as bad as people say, but sadly this is the worst we have encountered. They will ask for a credit card just in case of incidentals, but it did not...This place looks nice on the outside, but as soon as I opened the door to my room, my heart sank. It had old furniture, old outdated TV, kitchenette area was worn and cabinetry was peeling, carpet was dirty and old and outdated.the carpet looked as if there had been a flood from the restroom and they were not able to clean it up.  The carpet also had different color spots/stains in different spots like a child hadbeen using different color magic markers as there were also colored magic marker writing on the wall behind the door. The walls were very dirty. The table chairs were cracked and you could see the material sticking out. The bed slept comfortably and did not smell nor did the room, it was just dark.  There were NO roaches or bed bugs. The ac was good, bathroom was good and supply of towels were fine. The frontb desk guy was VERY nice, but Jesus is no longer there. We felt safe there and the area is nice. There are a total of 9 hotels and all are within walking distance of each other, but I won't stay at this one again.  I read the reviews but I usually get lucky because the places aren't as bad as people say, but sadly this is the worst we have encountered. They will ask for a credit card just in case of incidentals, but it did not hold any funds ...it just makes sure the card was valid ( just in case). Oh WiFi was supposed to be free but we could never get past the home page. No breakfast.More</t>
   </si>
   <si>
-    <t>Jojo681</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r237859731-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r237859731-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>237859731</t>
@@ -671,7 +635,7 @@
     <t>The rooms are very out of date and need to be renovated. Tv must have been at least 20 years old and hardly worked. The room was clean and shower was great. Staff was very nice and helpful. There were only two people trying to deal with a full hotel so I commend them.</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r234911051-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r234911051-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>234911051</t>
@@ -694,19 +658,28 @@
 I have no issues with any of the staff but it would be unfair to not single out Chrissy.  She clearly works hard and is accommodating and pleasant. Not o ly that but actually takes time to remember you if your treat her with respect. the entire crew has never left me feeling not taken care of. Zach is to the point but friendly , exactly what you need when it comes to a place like this. In my opinion,  if you have a problem wjth the staff, your probably having a bad day (or possibly...Theres a lot of reviews on here that seem to be people expecting a 5 star hotel. Ive stayed here to many timex to not finally give my input.  Traveling a lot, and staying here a lot, I can say that the service is beyond any other place of this "rating" and the rooms may be small and again (not 5 star quality) .. but you are getting a clean room with a kitchen, and every room ive had has had amazing shower pressure.....what other hotel in this rating category has that?  the tv could use more channels and they did have bad Internet connection but recently fixed that (the internet) and it is now amazing.  Thats my overall point, they work with what they have, which is not horrible to begin with.. and any issue ive seen, they have put effort into fixing.   I have no issues with any of the staff but it would be unfair to not single out Chrissy.  She clearly works hard and is accommodating and pleasant. Not o ly that but actually takes time to remember you if your treat her with respect. the entire crew has never left me feeling not taken care of. Zach is to the point but friendly , exactly what you need when it comes to a place like this. In my opinion,  if you have a problem wjth the staff, your probably having a bad day (or possibly them I suppose) or simply expecting concierge serice at a extended stay .... the location is also perfect.. walking distance to 24hr food , a bar, gas station... all the bad reviews need to take it easy.  Relax, and go have a drink at the bar next door Dont come here expecting a steak on a tv meal budget , and you should be more then happy with your stay.More</t>
   </si>
   <si>
-    <t>Cynthia D</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r220250250-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r220250250-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>220250250</t>
   </si>
   <si>
-    <t>Kelly B</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r217021215-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>08/07/2014</t>
+  </si>
+  <si>
+    <t>security and maintenance</t>
+  </si>
+  <si>
+    <t>I have been a resident at the Crossland Sudios since February of this year. Everything were just fine up until the management change from Ms. Darla to Zach Lagunas. Personally I believe that this young man is too young and carefree to head a business that deals with the public.      What is the purpose for a 'pet deposit' fee? I have my pet puppy in a crate while I'm away at work and for the second consecutive week the maintenance lady (which more than twice I have asked for a replacement because she makes me feel uncomfortable, not happened yet) has not bothered with maintaining the room (minimal, I'm single); according to the office personnel it is due to the pet urine odor which I just freshly (3 days ago) ran-out of the antibacterial cleanser.     On a separate note, I purchased a hefty Bissell pet sport lifter vacuum approximately one year prior to purchasing the pet.    Just out of curiosity, according to Mr, Zach Lagunas the daily rate has increased, is that a fact? I had no clue that the lodging daily rate is based on the stock market's fluctuation.    Approximately two months ago 'somebody' gained access to the top drawer (where my intimate clothing is) and place one of my intimate clothing pieces on top of the restroom door.   Early next morning (i work up until 1 am) i called the office and the attendant were quite reluctant to...I have been a resident at the Crossland Sudios since February of this year. Everything were just fine up until the management change from Ms. Darla to Zach Lagunas. Personally I believe that this young man is too young and carefree to head a business that deals with the public.      What is the purpose for a 'pet deposit' fee? I have my pet puppy in a crate while I'm away at work and for the second consecutive week the maintenance lady (which more than twice I have asked for a replacement because she makes me feel uncomfortable, not happened yet) has not bothered with maintaining the room (minimal, I'm single); according to the office personnel it is due to the pet urine odor which I just freshly (3 days ago) ran-out of the antibacterial cleanser.     On a separate note, I purchased a hefty Bissell pet sport lifter vacuum approximately one year prior to purchasing the pet.    Just out of curiosity, according to Mr, Zach Lagunas the daily rate has increased, is that a fact? I had no clue that the lodging daily rate is based on the stock market's fluctuation.    Approximately two months ago 'somebody' gained access to the top drawer (where my intimate clothing is) and place one of my intimate clothing pieces on top of the restroom door.   Early next morning (i work up until 1 am) i called the office and the attendant were quite reluctant to speak; to date i'm clueless as to how the situation were handled).    Asked to have the chest of drawers replaced given the fact that I need it for daily use; no positive feedback yet.      You immediate response is required given the fact that I'm scheduled to pay Friday (tomorrow) and I pay for two weeks at a time. P.S. I leave to my place of employment at approximately 1:30 pm Central Time.Sincerely,Cynthia Duran817-838-3500 ext. 7760MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>I have been a resident at the Crossland Sudios since February of this year. Everything were just fine up until the management change from Ms. Darla to Zach Lagunas. Personally I believe that this young man is too young and carefree to head a business that deals with the public.      What is the purpose for a 'pet deposit' fee? I have my pet puppy in a crate while I'm away at work and for the second consecutive week the maintenance lady (which more than twice I have asked for a replacement because she makes me feel uncomfortable, not happened yet) has not bothered with maintaining the room (minimal, I'm single); according to the office personnel it is due to the pet urine odor which I just freshly (3 days ago) ran-out of the antibacterial cleanser.     On a separate note, I purchased a hefty Bissell pet sport lifter vacuum approximately one year prior to purchasing the pet.    Just out of curiosity, according to Mr, Zach Lagunas the daily rate has increased, is that a fact? I had no clue that the lodging daily rate is based on the stock market's fluctuation.    Approximately two months ago 'somebody' gained access to the top drawer (where my intimate clothing is) and place one of my intimate clothing pieces on top of the restroom door.   Early next morning (i work up until 1 am) i called the office and the attendant were quite reluctant to...I have been a resident at the Crossland Sudios since February of this year. Everything were just fine up until the management change from Ms. Darla to Zach Lagunas. Personally I believe that this young man is too young and carefree to head a business that deals with the public.      What is the purpose for a 'pet deposit' fee? I have my pet puppy in a crate while I'm away at work and for the second consecutive week the maintenance lady (which more than twice I have asked for a replacement because she makes me feel uncomfortable, not happened yet) has not bothered with maintaining the room (minimal, I'm single); according to the office personnel it is due to the pet urine odor which I just freshly (3 days ago) ran-out of the antibacterial cleanser.     On a separate note, I purchased a hefty Bissell pet sport lifter vacuum approximately one year prior to purchasing the pet.    Just out of curiosity, according to Mr, Zach Lagunas the daily rate has increased, is that a fact? I had no clue that the lodging daily rate is based on the stock market's fluctuation.    Approximately two months ago 'somebody' gained access to the top drawer (where my intimate clothing is) and place one of my intimate clothing pieces on top of the restroom door.   Early next morning (i work up until 1 am) i called the office and the attendant were quite reluctant to speak; to date i'm clueless as to how the situation were handled).    Asked to have the chest of drawers replaced given the fact that I need it for daily use; no positive feedback yet.      You immediate response is required given the fact that I'm scheduled to pay Friday (tomorrow) and I pay for two weeks at a time. P.S. I leave to my place of employment at approximately 1:30 pm Central Time.Sincerely,Cynthia Duran817-838-3500 ext. 7760More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r217021215-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>217021215</t>
@@ -727,10 +700,7 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Amanda F</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r216438652-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r216438652-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>216438652</t>
@@ -748,10 +718,7 @@
     <t>Upon arriving the overall outside was fine, it looked clean. Checking in was simple enough, although the women was on the phone conversing the entire time. We got our bags and found our room, it was kept neat for the most part, the pillows were tiny and uncomfortable, was the only issue with the bed, there were hardly any convenient plug ins. And only a night table on one side, the TV had horrible reception barely a few channels that came in. The internet was just as bad, it would not connect to my cell or laptop inside or out maybe a bar then it would disappear. The fridge/freezer had frost every where but kept things cool overall. The residents were very disturbing and unfriendly, and extremely noisy. All night into the hours of 3-4am even we had non stop slamming of doors and people screaming, and a few times a car alarm going off. At one point what sounded to be laws asking about a dispute between the people upstairs. And lastly, we finally fell asleep only to be woken up to a frightening very loud fire alarm that was painful to the ears and it was going through the hole building, we had no idea why, or any heads up what so ever. We decided to not stay the extra night and packed up and went home instead, we had booked the days for our one year anniversary,...Upon arriving the overall outside was fine, it looked clean. Checking in was simple enough, although the women was on the phone conversing the entire time. We got our bags and found our room, it was kept neat for the most part, the pillows were tiny and uncomfortable, was the only issue with the bed, there were hardly any convenient plug ins. And only a night table on one side, the TV had horrible reception barely a few channels that came in. The internet was just as bad, it would not connect to my cell or laptop inside or out maybe a bar then it would disappear. The fridge/freezer had frost every where but kept things cool overall. The residents were very disturbing and unfriendly, and extremely noisy. All night into the hours of 3-4am even we had non stop slamming of doors and people screaming, and a few times a car alarm going off. At one point what sounded to be laws asking about a dispute between the people upstairs. And lastly, we finally fell asleep only to be woken up to a frightening very loud fire alarm that was painful to the ears and it was going through the hole building, we had no idea why, or any heads up what so ever. We decided to not stay the extra night and packed up and went home instead, we had booked the days for our one year anniversary, to be alone. Mostly it was alright for the price, but I'd never pay over what we did.More</t>
   </si>
   <si>
-    <t>lalisk</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r214097645-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r214097645-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>214097645</t>
@@ -766,10 +733,7 @@
     <t>It was so old, dirty,  it had body odor smell,  spiders inside, I just check the bed to see if there was a Surprise there... yeah hairs that is a place where I will never go again or definitely not recommend.  Took my wife and kids and got a room somewhere else same price but excellent conditions,  clean, bigger, nice, comfortable. ... won't do an online reservation again unless I know the place.</t>
   </si>
   <si>
-    <t>AquamomTx</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r211733156-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r211733156-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>211733156</t>
@@ -784,10 +748,7 @@
     <t xml:space="preserve">This place offers a low rate for a reason. I felt scared to be out of my room before 6am and after 7pm. The staff is extremely helpful and kind but they cant make this hotel a palace. The grounds were a mess, some of the residents were very frightening. I was on edge the time. I had asked for an extended stay but left after 2 nights. </t>
   </si>
   <si>
-    <t>Misspm69</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r210169232-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r210169232-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>210169232</t>
@@ -802,7 +763,7 @@
     <t>Chrissy has excellent interpersonal &amp; customer service skills. Ms Chrissy was very professional with her answers to all my questions and confirmed my reserversation Because of her I will be back  to stay at your hotel many times over. She helped make this stay very enjoyable.  Thank you Chrissy Ms MosdMoreShow less</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Economy Studios - Fort Worth - Fossil Creek, responded to this reviewResponded June 30, 2014</t>
+    <t>Manager_11525, General Manager at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded June 30, 2014</t>
   </si>
   <si>
     <t>Responded June 30, 2014</t>
@@ -811,10 +772,7 @@
     <t>Chrissy has excellent interpersonal &amp; customer service skills. Ms Chrissy was very professional with her answers to all my questions and confirmed my reserversation Because of her I will be back  to stay at your hotel many times over. She helped make this stay very enjoyable.  Thank you Chrissy Ms MosdMore</t>
   </si>
   <si>
-    <t>Cody S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r208422330-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r208422330-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>208422330</t>
@@ -833,7 +791,7 @@
     <t>May 2014</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Economy Studios - Fort Worth - Fossil Creek, responded to this reviewResponded July 9, 2014</t>
+    <t>Manager_11525, General Manager at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded July 9, 2014</t>
   </si>
   <si>
     <t>Responded July 9, 2014</t>
@@ -843,10 +801,7 @@
 When we first checked in, which was quick and the counter staff was very friendly, we were given a non-smoking room, but once we arrived in our room, it was oblivious that someone had been doing A LOT of smoking in there.  A quick call and they changed our rooms, this time the room smelled nice and fresh, but there was still a hint of smoke smell.  I know that they can not always police the no smoking policy, but they should disinfect better once they realize that the room has been smoked in.   We were on the second floor and did not hear anything from the rooms on either side of us or...We stayed at the Crossland Studios for 1 night and was only looking for a clean place to sleep.  We didn't "need" anything other than a bed.  That being said, that is just about you get here, but the bed was super comfortable, only a double, but it worked.  The room came with a mini kitchen area, which if you are looking for that, would of been great.  The kitchen had flat wear, utensils, pots, plates, a bowl, a few glasses and ice trays in the mini fridge.  There was no pool, no exercise room, and no ice machine, however, they did have free Wifi, an older tube TV with several channels, nothing for a toddler, and plenty of towels, which were very basic white towels. When we first checked in, which was quick and the counter staff was very friendly, we were given a non-smoking room, but once we arrived in our room, it was oblivious that someone had been doing A LOT of smoking in there.  A quick call and they changed our rooms, this time the room smelled nice and fresh, but there was still a hint of smoke smell.  I know that they can not always police the no smoking policy, but they should disinfect better once they realize that the room has been smoked in.   We were on the second floor and did not hear anything from the rooms on either side of us or from above us, so that was a plus.  The room furnishings were dated and showed a lot of wear, but everything served it's purpose.  If there is going to be more than one person, be advised that there isn't much storage space for your belongings, both in the main room and the bathroom.  The bedding was clean, but I did notice a small burn hole in one of the sheets.  The entire room seemed to be very clean and the carpet seemed newer than the rest of the room.  Check out was a breeze and the staff was again friendly and even requested that we provide a review on Tripadvisor.  Overall the 2 star rating for this property seems on par and the room served it's purpose.More</t>
   </si>
   <si>
-    <t>RayMcclain</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r201468807-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r201468807-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>201468807</t>
@@ -864,7 +819,7 @@
     <t>April 2014</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r200345276-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r200345276-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>200345276</t>
@@ -879,10 +834,7 @@
     <t xml:space="preserve">No place to put things in restroom except on sink railing or toilet tank top. There was a plunger in there and needed it. Toilet refilled often, like flushing noise. Internet was intermittent and constant ads. No iron in room, no ironing board available. Housekeeping did not come during four night stay,  one light didnt work by open closet shelf, lamps by beds flickered and switch was "tempermental". </t>
   </si>
   <si>
-    <t>David S</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r190143258-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r190143258-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>190143258</t>
@@ -897,7 +849,7 @@
     <t>Darla at the Desk was so pleasant to deal with. The Wifi wasn't working and she got right on it &amp; in 2 hrs it was on. I appreciated that. I was so happy that this will be my hotel in Ft Worth to stay when available.MoreShow less</t>
   </si>
   <si>
-    <t>Manager_11525, Manager at Crossland Economy Studios - Fort Worth - Fossil Creek, responded to this reviewResponded January 16, 2014</t>
+    <t>Manager_11525, Manager at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded January 16, 2014</t>
   </si>
   <si>
     <t>Responded January 16, 2014</t>
@@ -906,10 +858,7 @@
     <t>Darla at the Desk was so pleasant to deal with. The Wifi wasn't working and she got right on it &amp; in 2 hrs it was on. I appreciated that. I was so happy that this will be my hotel in Ft Worth to stay when available.More</t>
   </si>
   <si>
-    <t>dougmoore777</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r186916900-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r186916900-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>186916900</t>
@@ -924,7 +873,7 @@
     <t>I really enjoy staying at Crossland Hotel and anytime i am in need of a hotel its my top choice. The staff and the rooms accomidations like the kitchenettes make the stay more like home than at a hotel.MoreShow less</t>
   </si>
   <si>
-    <t>Manager_11525, General Manager at Crossland Economy Studios - Fort Worth - Fossil Creek, responded to this reviewResponded January 3, 2014</t>
+    <t>Manager_11525, General Manager at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded January 3, 2014</t>
   </si>
   <si>
     <t>Responded January 3, 2014</t>
@@ -933,10 +882,7 @@
     <t>I really enjoy staying at Crossland Hotel and anytime i am in need of a hotel its my top choice. The staff and the rooms accomidations like the kitchenettes make the stay more like home than at a hotel.More</t>
   </si>
   <si>
-    <t>Lilly B</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r183861328-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r183861328-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>183861328</t>
@@ -957,10 +903,250 @@
     <t>well i used to love this motel the people that work there are really great especially chrissy at the front desk . The manager darla was also very nice i used to stay there all the time until recently i stayed the nite actually two nights and i called up there after them nights to see if they had a room and i was informed that i have a DNR on my name which is ridiculous cause they said i stole some pillows and grounded food in the carpet. First of all i have my own pillows at my home i haved stayed at this motel over 50 to 70 nights paying full price every night and have never be told that i stole anything out of them rooms every so why would i start now especially if i was still planning to stay there several more times. There is nicer motels in that same area that has around the same prices but i still chose every time to stay at the crosslands because of the workers that have been so kind to me in my many stays and i have stayed at several of the other ones that have nice people working for them but here it was different but unfortunetly i will not be staying there again but i just wanted them to know that maybe they need to look at the people that clean up the rooms...well i used to love this motel the people that work there are really great especially chrissy at the front desk . The manager darla was also very nice i used to stay there all the time until recently i stayed the nite actually two nights and i called up there after them nights to see if they had a room and i was informed that i have a DNR on my name which is ridiculous cause they said i stole some pillows and grounded food in the carpet. First of all i have my own pillows at my home i haved stayed at this motel over 50 to 70 nights paying full price every night and have never be told that i stole anything out of them rooms every so why would i start now especially if i was still planning to stay there several more times. There is nicer motels in that same area that has around the same prices but i still chose every time to stay at the crosslands because of the workers that have been so kind to me in my many stays and i have stayed at several of the other ones that have nice people working for them but here it was different but unfortunetly i will not be staying there again but i just wanted them to know that maybe they need to look at the people that clean up the rooms cause i have never taken anything except maybe a wash rag but other then that nothing never done it before and wouldnt do it now cause i was still planning on staying there plenty more nights and im not that kind of person never had any other of the motels ever put a DNR on my name in the past or present i have spent plenty of money here sometimes renting two rooms at one time for my sister but i paid for both rooms . My name is Lilly Bowen from fort worth texasMore</t>
   </si>
   <si>
-    <t>MGPHAAS</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r150404122-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r182957177-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>182957177</t>
+  </si>
+  <si>
+    <t>10/30/2013</t>
+  </si>
+  <si>
+    <t>consistent quality</t>
+  </si>
+  <si>
+    <t>I've been coming here for five years and this stay was no different than the others.Darla and her staff were as accommodating as always and my room was neat and clean as usual.The combination of price,service,and facilities is hard to beat not to mention the convenient location.I'll definitely be back!Ted H.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded November 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2013</t>
+  </si>
+  <si>
+    <t>I've been coming here for five years and this stay was no different than the others.Darla and her staff were as accommodating as always and my room was neat and clean as usual.The combination of price,service,and facilities is hard to beat not to mention the convenient location.I'll definitely be back!Ted H.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r181526152-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>181526152</t>
+  </si>
+  <si>
+    <t>10/18/2013</t>
+  </si>
+  <si>
+    <t>Bug City</t>
+  </si>
+  <si>
+    <t>We Checked in, when we entered our room there were 2 big  black bugs running around, Within  the 5 mins we were there we decided to find somewhere else. Fortunately Microtel Suites were just across the road. Within 10 mins we were checked in there,What a good decision.If you don't  want to share your  holiday with bugs give it a miss.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded October 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2013</t>
+  </si>
+  <si>
+    <t>We Checked in, when we entered our room there were 2 big  black bugs running around, Within  the 5 mins we were there we decided to find somewhere else. Fortunately Microtel Suites were just across the road. Within 10 mins we were checked in there,What a good decision.If you don't  want to share your  holiday with bugs give it a miss.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r176542278-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>176542278</t>
+  </si>
+  <si>
+    <t>09/09/2013</t>
+  </si>
+  <si>
+    <t>Best place to stay.</t>
+  </si>
+  <si>
+    <t>I love staying at this place great service and good receptionist.  The too,s are clean poll area was awesome love they I was treated. I will use them again next time I'm in. Darla is the best owner the company could ask for she is always cheerful and up beat. She is always very accommodated to all the needs.  Her crew are just as hood.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded September 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2013</t>
+  </si>
+  <si>
+    <t>I love staying at this place great service and good receptionist.  The too,s are clean poll area was awesome love they I was treated. I will use them again next time I'm in. Darla is the best owner the company could ask for she is always cheerful and up beat. She is always very accommodated to all the needs.  Her crew are just as hood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r166791756-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>166791756</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Won't do that AGAIN!</t>
+  </si>
+  <si>
+    <t>Outside didn't look bad but the room was horrible!  Many people "hanging around", day and night.  Stench in the hallways was HORRIFIC for days...trash not emptied.  Deadbolt on door gone, 2 of the 3 drawers of bureau wouldnt open, We have stayed with this chain previously.  Here, however, suite is not a suite..just 1 full size bed (HARD) with small kitchen.  Asked for extra pillow, met with nasty look and long wait. Old food from previous tenant left in sink, which clogged drain.  Water pressure in shower was GREAT and HOT, no matter what time of day.  Other front desk people were extremely pleasant.  But we will not stay here again, even for that same low price.  You get what you pay for.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Outside didn't look bad but the room was horrible!  Many people "hanging around", day and night.  Stench in the hallways was HORRIFIC for days...trash not emptied.  Deadbolt on door gone, 2 of the 3 drawers of bureau wouldnt open, We have stayed with this chain previously.  Here, however, suite is not a suite..just 1 full size bed (HARD) with small kitchen.  Asked for extra pillow, met with nasty look and long wait. Old food from previous tenant left in sink, which clogged drain.  Water pressure in shower was GREAT and HOT, no matter what time of day.  Other front desk people were extremely pleasant.  But we will not stay here again, even for that same low price.  You get what you pay for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r163746565-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>163746565</t>
+  </si>
+  <si>
+    <t>06/12/2013</t>
+  </si>
+  <si>
+    <t>i will not stay at this chain again</t>
+  </si>
+  <si>
+    <t>I usually do not write reviews on hotels but this one was so terrible I had to!!!! Where to start: 1) they put us in a room that had just flooded and tried to cover the stench with gallons of febreeze! 2) moved to the second room where we found a box of condoms under one of the beds and the beds were not queen sized, they are maybe full sized, 3) a homeless person can be found digging in the trash cans found by the stairwell at night where it appears she is living as well, 4) we stayed two nights (4 people) and were told by staff that if we needed extra towels because the room was only supplied with 3 to go to the front desk and ask, so we did and were told by the same staff member that we would need to bring our dirty towels to get new ones so we did and asked for an extra since there were 4 of us and were denied a 4th towel 5) the bible that was in the drawer by the bed had been written on that stated "Satan`s bible" I will state that other than the towel incident, the staff was amazing!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded June 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2013</t>
+  </si>
+  <si>
+    <t>I usually do not write reviews on hotels but this one was so terrible I had to!!!! Where to start: 1) they put us in a room that had just flooded and tried to cover the stench with gallons of febreeze! 2) moved to the second room where we found a box of condoms under one of the beds and the beds were not queen sized, they are maybe full sized, 3) a homeless person can be found digging in the trash cans found by the stairwell at night where it appears she is living as well, 4) we stayed two nights (4 people) and were told by staff that if we needed extra towels because the room was only supplied with 3 to go to the front desk and ask, so we did and were told by the same staff member that we would need to bring our dirty towels to get new ones so we did and asked for an extra since there were 4 of us and were denied a 4th towel 5) the bible that was in the drawer by the bed had been written on that stated "Satan`s bible" I will state that other than the towel incident, the staff was amazing!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r159394274-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>159394274</t>
+  </si>
+  <si>
+    <t>05/01/2013</t>
+  </si>
+  <si>
+    <t>Great Business Stay and Hospitality!!!</t>
+  </si>
+  <si>
+    <t>Great place to be central located North of Fort Worth Texas... I had to come here for business and I'm from California where using a hotel for my business is a must at time for no distractions and crunch time with work overload. I have to say... No noise or distractions great room and hospitality. I will come back again and use the hotel... Great location, close to many restaurants, fast food places, grocery stores, retail shops and night life as well... Check it out if your in the area... Nice people and experience....MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded May 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2013</t>
+  </si>
+  <si>
+    <t>Great place to be central located North of Fort Worth Texas... I had to come here for business and I'm from California where using a hotel for my business is a must at time for no distractions and crunch time with work overload. I have to say... No noise or distractions great room and hospitality. I will come back again and use the hotel... Great location, close to many restaurants, fast food places, grocery stores, retail shops and night life as well... Check it out if your in the area... Nice people and experience....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r159079832-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>159079832</t>
+  </si>
+  <si>
+    <t>04/28/2013</t>
+  </si>
+  <si>
+    <t>Do Not Stay Here Ever</t>
+  </si>
+  <si>
+    <t>We stayed here years ago and this place was ok. Stayed here again and it was horrible. The smell would kill you, the carpet was so stained and grease filled your white socks would be black. Not exagerating one bit. This place is HORRIBLE...Needs to be shut down for a complete restoration. DO NOT stay here. The very nice lady at the front desk did refund us our money and got us another hotel room that was very very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here years ago and this place was ok. Stayed here again and it was horrible. The smell would kill you, the carpet was so stained and grease filled your white socks would be black. Not exagerating one bit. This place is HORRIBLE...Needs to be shut down for a complete restoration. DO NOT stay here. The very nice lady at the front desk did refund us our money and got us another hotel room that was very very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r158945887-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>158945887</t>
+  </si>
+  <si>
+    <t>04/27/2013</t>
+  </si>
+  <si>
+    <t>Do not stay!</t>
+  </si>
+  <si>
+    <t>The cost continued to rise the longer we stayed. This also happened for another couple that was staying there on a long term basis. We were not treated with the hospitality I would expect of a hotel. The laundry is $2 to wash, $2 to dry. Way too expensive. There are apartments available in the area for 1 month lease! Do not recommend staying here whatsoever. The bed was physically painful to sleep on. I ended up in the ER after developing bursitis in my hip. When moving out, we went hunting for furniture and I found that simply laying on the brand new bed did not hurt whatsoever. After moving out, still waiting on furniture, I'm sleeping on the floor and its still less painful than sleeping on their bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>crs6086gm, General Manager at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded April 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2013</t>
+  </si>
+  <si>
+    <t>The cost continued to rise the longer we stayed. This also happened for another couple that was staying there on a long term basis. We were not treated with the hospitality I would expect of a hotel. The laundry is $2 to wash, $2 to dry. Way too expensive. There are apartments available in the area for 1 month lease! Do not recommend staying here whatsoever. The bed was physically painful to sleep on. I ended up in the ER after developing bursitis in my hip. When moving out, we went hunting for furniture and I found that simply laying on the brand new bed did not hurt whatsoever. After moving out, still waiting on furniture, I'm sleeping on the floor and its still less painful than sleeping on their bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r155122246-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>155122246</t>
+  </si>
+  <si>
+    <t>03/19/2013</t>
+  </si>
+  <si>
+    <t>Darla the manager does a stellar job in her daily activities while operating this second home of mine.</t>
+  </si>
+  <si>
+    <t>I have stayed at the crosslands several times in the past year and have not a single complaint. The staff are excellent always helpful &amp; provide great service. When I need a place 2 stay at an affordable rate I find myself at the crosslands hoping 4 a vacancy. I'll be back there soon I'm sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>crs6086gm, General Manager at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded March 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2013</t>
+  </si>
+  <si>
+    <t>I have stayed at the crosslands several times in the past year and have not a single complaint. The staff are excellent always helpful &amp; provide great service. When I need a place 2 stay at an affordable rate I find myself at the crosslands hoping 4 a vacancy. I'll be back there soon I'm sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r153807141-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>153807141</t>
+  </si>
+  <si>
+    <t>03/05/2013</t>
+  </si>
+  <si>
+    <t>Decent for price</t>
+  </si>
+  <si>
+    <t>Stayed here as a last minute change for the stock show. Alittle nervous going in after reading the reviews..but it was actually sufficent for what I needed..a place to sleep and shower inbetween shows.Front desk was very nice and inviting at check in.Wi-Fi was alittle spotty, beds were alittle hard..but overall clean..dont go in expecting the Hilton..this is a functional place for those on a budget.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>crs6086gm, Manager at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded March 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here as a last minute change for the stock show. Alittle nervous going in after reading the reviews..but it was actually sufficent for what I needed..a place to sleep and shower inbetween shows.Front desk was very nice and inviting at check in.Wi-Fi was alittle spotty, beds were alittle hard..but overall clean..dont go in expecting the Hilton..this is a functional place for those on a budget.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r150404122-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>150404122</t>
@@ -975,10 +1161,7 @@
     <t>stayed here due to cost but would never stay again because of the quality and i expected them to have a hairdryer but didnt even have one to borrow , room looked like the door at one time had been broken into , it was clean for the most part just not desirable...MoreShow less</t>
   </si>
   <si>
-    <t>January 2013</t>
-  </si>
-  <si>
-    <t>bbrauss, Manager at Crossland Economy Studios - Fort Worth - Fossil Creek, responded to this reviewResponded January 25, 2013</t>
+    <t>bbrauss, Manager at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded January 25, 2013</t>
   </si>
   <si>
     <t>Responded January 25, 2013</t>
@@ -987,10 +1170,7 @@
     <t>stayed here due to cost but would never stay again because of the quality and i expected them to have a hairdryer but didnt even have one to borrow , room looked like the door at one time had been broken into , it was clean for the most part just not desirable...More</t>
   </si>
   <si>
-    <t>Avillalobos255</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r145266297-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r145266297-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>145266297</t>
@@ -1005,7 +1185,7 @@
     <t>Great staff, they know most people by name! It helps to feel more at home, they always do their best to make you feel great! They always accommodate to my preferences. Rooms are always clean maintained and very well kept! MoreShow less</t>
   </si>
   <si>
-    <t>bbrauss, Manager at Crossland Economy Studios - Fort Worth - Fossil Creek, responded to this reviewResponded November 14, 2012</t>
+    <t>bbrauss, Manager at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded November 14, 2012</t>
   </si>
   <si>
     <t>Responded November 14, 2012</t>
@@ -1014,10 +1194,7 @@
     <t>Great staff, they know most people by name! It helps to feel more at home, they always do their best to make you feel great! They always accommodate to my preferences. Rooms are always clean maintained and very well kept! More</t>
   </si>
   <si>
-    <t>afhick</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r144750345-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r144750345-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>144750345</t>
@@ -1035,7 +1212,7 @@
     <t>November 2012</t>
   </si>
   <si>
-    <t>bbrauss, Manager at Crossland Economy Studios - Fort Worth - Fossil Creek, responded to this reviewResponded November 7, 2012</t>
+    <t>bbrauss, Manager at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded November 7, 2012</t>
   </si>
   <si>
     <t>Responded November 7, 2012</t>
@@ -1044,10 +1221,7 @@
     <t>This hotel is awesome. They say you get what you pay for, but in this case, it's not true. The rooms were comfortable, VERY clean, and everything was ready for us when we arrived. They had our rooms ready and we were able to check in at 10am rather than 3pm. Darla and Samantha were VERY helpful. A situation happened with a couple of pranksers and flooded out the room. They gave us money to use the laundry facility and during NASCAR weekend were able to assist us in getting 2 more rooms. The staff is very friendly. It's about a $20 dollar cab ride to the stockyards, and shuttle service is not available...But even with the $40 round trip taxi, it's cheaper than staying at a hotel with shuttle service. The area is surrounded by hotels, and you are within walking distance (200-300yds) from Redneck Heaven, Roadhouse, and IHOP, and you're a stone's throw away from Waffle House. I won't stay anywhere else in Fort Worth as long as Ms. Darla is the manager. She runs a tight shop. The staff doesn't just come in and make the donuts. They take pride in their hotel and will do anything within their power to ensure the guests have a 5 star experience.More</t>
   </si>
   <si>
-    <t>ButterCups2002</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r142708979-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r142708979-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>142708979</t>
@@ -1062,7 +1236,7 @@
     <t>From the very beginning I felt welcome and taken care of. The manager checked me in on her birthday with a million things going on in the office and never missed a step. Every night I have extended she has greeted me with a smile and by name.  I will not be staying anywhere else from mow on when I come to Fossil Creek. ;)MoreShow less</t>
   </si>
   <si>
-    <t>bbrauss, Manager at Crossland Economy Studios - Fort Worth - Fossil Creek, responded to this reviewResponded October 17, 2012</t>
+    <t>bbrauss, Manager at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded October 17, 2012</t>
   </si>
   <si>
     <t>Responded October 17, 2012</t>
@@ -1071,10 +1245,7 @@
     <t>From the very beginning I felt welcome and taken care of. The manager checked me in on her birthday with a million things going on in the office and never missed a step. Every night I have extended she has greeted me with a smile and by name.  I will not be staying anywhere else from mow on when I come to Fossil Creek. ;)More</t>
   </si>
   <si>
-    <t>camilla00</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r141664479-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r141664479-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>141664479</t>
@@ -1095,10 +1266,331 @@
     <t>After a hotwire mistake at another establishment, I decided to try this property since it was right next door. I was a bit skeptical because it was super cheap, but the outside appearance made me feel a bit better. The check in was smooth and fast. However, once I entered my room I instantly turned back around to check out. The room was small ann uncleanly. Definitely looked like an environment for "working" ladies. Definitely not a place I felt comfortable putting my things down, less known sleeping in.More</t>
   </si>
   <si>
-    <t>acaciaruth</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r14159977-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r141261936-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>141261936</t>
+  </si>
+  <si>
+    <t>09/25/2012</t>
+  </si>
+  <si>
+    <t>started stay on Saturday the 9th of sept</t>
+  </si>
+  <si>
+    <t>My wife and I arrived was greated ny a friendly receptionist Christy, Went up to our room and unpacked and set up for my 2 month stay. After unpacking left for walmart for lysol and cleaning supplies, had to clean the mildew and nastiness in the bathroom. We purchased a non smoking room and found the sheets, towels and linens all smelled of cigarette smoke. Looked under the bed and there was bottle caps, mouse sticky traps and 3 empty water bottles and an old sock. After we cleaned, mainly because this is a work paid hotel," Cheap". Week 1 the ESPN channel stopped working hotel staff said its a dish network thing requiring it to be a paid channel because of football season, No race no football. But at the same time we got espn U, Classic and 2. Week 2 we lost espn 2, espn classic, espn news, tbs,tnt, usa and both showtime channels and cnn. leaving us with: PBS,ABC, NBC,CBS,FOX, ESPNU, Oxygen, TWC, disc, Cartoon network, fox news,. The manager Darla said they are paid channels and they werent paying for them. The TV only has a staight cable connection with no options to hook any gaming or dvd player to it. The bed you can feel the springs under the sheets also. Do to the clientel that stays here I recommend one of the others near by. Pay extra money for comfort a pool, tv channels,...My wife and I arrived was greated ny a friendly receptionist Christy, Went up to our room and unpacked and set up for my 2 month stay. After unpacking left for walmart for lysol and cleaning supplies, had to clean the mildew and nastiness in the bathroom. We purchased a non smoking room and found the sheets, towels and linens all smelled of cigarette smoke. Looked under the bed and there was bottle caps, mouse sticky traps and 3 empty water bottles and an old sock. After we cleaned, mainly because this is a work paid hotel," Cheap". Week 1 the ESPN channel stopped working hotel staff said its a dish network thing requiring it to be a paid channel because of football season, No race no football. But at the same time we got espn U, Classic and 2. Week 2 we lost espn 2, espn classic, espn news, tbs,tnt, usa and both showtime channels and cnn. leaving us with: PBS,ABC, NBC,CBS,FOX, ESPNU, Oxygen, TWC, disc, Cartoon network, fox news,. The manager Darla said they are paid channels and they werent paying for them. The TV only has a staight cable connection with no options to hook any gaming or dvd player to it. The bed you can feel the springs under the sheets also. Do to the clientel that stays here I recommend one of the others near by. Pay extra money for comfort a pool, tv channels, bring a hot plate and cooking utensils you will be much happier.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded September 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2012</t>
+  </si>
+  <si>
+    <t>My wife and I arrived was greated ny a friendly receptionist Christy, Went up to our room and unpacked and set up for my 2 month stay. After unpacking left for walmart for lysol and cleaning supplies, had to clean the mildew and nastiness in the bathroom. We purchased a non smoking room and found the sheets, towels and linens all smelled of cigarette smoke. Looked under the bed and there was bottle caps, mouse sticky traps and 3 empty water bottles and an old sock. After we cleaned, mainly because this is a work paid hotel," Cheap". Week 1 the ESPN channel stopped working hotel staff said its a dish network thing requiring it to be a paid channel because of football season, No race no football. But at the same time we got espn U, Classic and 2. Week 2 we lost espn 2, espn classic, espn news, tbs,tnt, usa and both showtime channels and cnn. leaving us with: PBS,ABC, NBC,CBS,FOX, ESPNU, Oxygen, TWC, disc, Cartoon network, fox news,. The manager Darla said they are paid channels and they werent paying for them. The TV only has a staight cable connection with no options to hook any gaming or dvd player to it. The bed you can feel the springs under the sheets also. Do to the clientel that stays here I recommend one of the others near by. Pay extra money for comfort a pool, tv channels,...My wife and I arrived was greated ny a friendly receptionist Christy, Went up to our room and unpacked and set up for my 2 month stay. After unpacking left for walmart for lysol and cleaning supplies, had to clean the mildew and nastiness in the bathroom. We purchased a non smoking room and found the sheets, towels and linens all smelled of cigarette smoke. Looked under the bed and there was bottle caps, mouse sticky traps and 3 empty water bottles and an old sock. After we cleaned, mainly because this is a work paid hotel," Cheap". Week 1 the ESPN channel stopped working hotel staff said its a dish network thing requiring it to be a paid channel because of football season, No race no football. But at the same time we got espn U, Classic and 2. Week 2 we lost espn 2, espn classic, espn news, tbs,tnt, usa and both showtime channels and cnn. leaving us with: PBS,ABC, NBC,CBS,FOX, ESPNU, Oxygen, TWC, disc, Cartoon network, fox news,. The manager Darla said they are paid channels and they werent paying for them. The TV only has a staight cable connection with no options to hook any gaming or dvd player to it. The bed you can feel the springs under the sheets also. Do to the clientel that stays here I recommend one of the others near by. Pay extra money for comfort a pool, tv channels, bring a hot plate and cooking utensils you will be much happier.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r140222212-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>140222212</t>
+  </si>
+  <si>
+    <t>09/14/2012</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>not bad for the price....i think the double bed rooms could have a bigger bed and tv definitively needs more channels... i wanted to connect my portable dvd player to the tv but wasnt able to because it didnt have the proper connections.....MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded September 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2012</t>
+  </si>
+  <si>
+    <t>not bad for the price....i think the double bed rooms could have a bigger bed and tv definitively needs more channels... i wanted to connect my portable dvd player to the tv but wasnt able to because it didnt have the proper connections.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r135903199-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>135903199</t>
+  </si>
+  <si>
+    <t>07/31/2012</t>
+  </si>
+  <si>
+    <t>The Crosslands is outstanding for the price!</t>
+  </si>
+  <si>
+    <t>I have stayed at Crosslands for more than two years during my travels for work. The Manager (Darla) and Staff (Especially the lead GSR, Chrissy) make you feel at home with their friendly, helpful and accomodating attitude and smiles. The rooms are clean and comfortable, with A/C controls in each room, it is especially nice!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, Owner at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded August 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed at Crosslands for more than two years during my travels for work. The Manager (Darla) and Staff (Especially the lead GSR, Chrissy) make you feel at home with their friendly, helpful and accomodating attitude and smiles. The rooms are clean and comfortable, with A/C controls in each room, it is especially nice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r134236283-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>134236283</t>
+  </si>
+  <si>
+    <t>07/12/2012</t>
+  </si>
+  <si>
+    <t>A good room at a fair price</t>
+  </si>
+  <si>
+    <t>Me and my crew stayed for a month and thought the place was great. We saved a lot of money and the hotel manager worked wonders for us!  The desk staff was always helpful when we needed towels and such.  Over all the place is a good deal.  I think other people who have complained are expecting a new hotel for a third of the price.  Although the hotel wasn’t new, it was clean and friendly.  We stay on the road all year and this place was so much better than a lot of “hotels” we’ve been.EdRMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded July 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2012</t>
+  </si>
+  <si>
+    <t>Me and my crew stayed for a month and thought the place was great. We saved a lot of money and the hotel manager worked wonders for us!  The desk staff was always helpful when we needed towels and such.  Over all the place is a good deal.  I think other people who have complained are expecting a new hotel for a third of the price.  Although the hotel wasn’t new, it was clean and friendly.  We stay on the road all year and this place was so much better than a lot of “hotels” we’ve been.EdRMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r134207217-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>134207217</t>
+  </si>
+  <si>
+    <t>Best value around</t>
+  </si>
+  <si>
+    <t>I stay in hotels all over the USA and I have to say that even the more pricey locations don't provide service any more accommodating than Crossland/Fossil Creek.Clean rooms,friendly staff,convenient location,what more do you want? Simply put it's the best value in the DFW area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay in hotels all over the USA and I have to say that even the more pricey locations don't provide service any more accommodating than Crossland/Fossil Creek.Clean rooms,friendly staff,convenient location,what more do you want? Simply put it's the best value in the DFW area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r134200807-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>134200807</t>
+  </si>
+  <si>
+    <t>Love it and the staff is GREAT</t>
+  </si>
+  <si>
+    <t>I often stay here and i never have any problems all the staff is excellent especially Mrs darla if i ever need anything i just call up to the front office it always is taken care of as long as there is a room available i will always come here no doubt about it and I've lost my key before and it was past open hours and it took not even 5 minutes from calling the after hours to being let in my room an EXCELLENT place to stay!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I often stay here and i never have any problems all the staff is excellent especially Mrs darla if i ever need anything i just call up to the front office it always is taken care of as long as there is a room available i will always come here no doubt about it and I've lost my key before and it was past open hours and it took not even 5 minutes from calling the after hours to being let in my room an EXCELLENT place to stay!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r128045347-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>128045347</t>
+  </si>
+  <si>
+    <t>04/17/2012</t>
+  </si>
+  <si>
+    <t>Wonderful experince</t>
+  </si>
+  <si>
+    <t>If you want a clean spacious room, kitchen, good bed and shower at an affordable price this is your place.   If you want a workout room, a mint on your pillow, room service and a swimming pool, this is not your place. The manager went over and above "her job" to make sure we were comfortable and had everything we needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded April 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2012</t>
+  </si>
+  <si>
+    <t>If you want a clean spacious room, kitchen, good bed and shower at an affordable price this is your place.   If you want a workout room, a mint on your pillow, room service and a swimming pool, this is not your place. The manager went over and above "her job" to make sure we were comfortable and had everything we needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r126208074-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>126208074</t>
+  </si>
+  <si>
+    <t>03/16/2012</t>
+  </si>
+  <si>
+    <t>rude and disrespectful enployies</t>
+  </si>
+  <si>
+    <t>stayed there and called the front desk to let them know that the guest next to our room were loud and drinking and the next day we were ask to leave and when we said no cause we payed for a two weeks not only did the not refund our money they called the police on us and said we were out of control,so we left with out our refund and very unhappy with the hotel.We recommend anybody who is thinking about staying in one of this studios DON'T the are rude and heartless unless you bend over and kiss there you know what  they will be nice to you maybe.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at HomeTowne Studios Fort Worth – Fossil Creek, responded to this reviewResponded March 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2012</t>
+  </si>
+  <si>
+    <t>stayed there and called the front desk to let them know that the guest next to our room were loud and drinking and the next day we were ask to leave and when we said no cause we payed for a two weeks not only did the not refund our money they called the police on us and said we were out of control,so we left with out our refund and very unhappy with the hotel.We recommend anybody who is thinking about staying in one of this studios DON'T the are rude and heartless unless you bend over and kiss there you know what  they will be nice to you maybe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r114735039-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>114735039</t>
+  </si>
+  <si>
+    <t>06/25/2011</t>
+  </si>
+  <si>
+    <t>You could not pay me to deal with week end management the most disrespectful awful manered women in the world.Dirty/crooked</t>
+  </si>
+  <si>
+    <t>I will say other than the weekend manager who locked us out of our room while at work when we made arrangements to settle up with them when we returned, we were denied entry to our room and not let back in for more than 4 hours later when we held good to our word of payment had balance and another advance payment for more stay when finally getting into our room our dogs 2 small chiuauas were without water and food not to mention they were denied outside bathroom breaks for another 4 hours. When finally let back in and paid in full questioned management and was totally amazed by the unprofessionalism and degrading response of manager telling us corprate made that decision and proceeded to lie about feeding and watering our dogs. When we told her we were going to call corp. We were forced to move. By far do they have any class or respect. She did find time to go through our personal items. Violated that's how we feelMoreShow less</t>
+  </si>
+  <si>
+    <t>I will say other than the weekend manager who locked us out of our room while at work when we made arrangements to settle up with them when we returned, we were denied entry to our room and not let back in for more than 4 hours later when we held good to our word of payment had balance and another advance payment for more stay when finally getting into our room our dogs 2 small chiuauas were without water and food not to mention they were denied outside bathroom breaks for another 4 hours. When finally let back in and paid in full questioned management and was totally amazed by the unprofessionalism and degrading response of manager telling us corprate made that decision and proceeded to lie about feeding and watering our dogs. When we told her we were going to call corp. We were forced to move. By far do they have any class or respect. She did find time to go through our personal items. Violated that's how we feelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r82351104-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>82351104</t>
+  </si>
+  <si>
+    <t>10/06/2010</t>
+  </si>
+  <si>
+    <t>TERRIBLE - Spend the extra $15 and go to a real hotel!</t>
+  </si>
+  <si>
+    <t>Where do I begin? The employees were so incompetent! I made three calls to the front desk and was told I would be called back in fifteen minutes every time, finally after waiting two hours I drove to the office expecting them to be busy but there wasn't a customer in sight, they were talking. And RUDE!! The Ghetto-Queen attitude one girl in particular had towards customers was unbelievable and insulting. The rooms may be cheap, but they're not cheap enough for what you get. Our "non-smoking" room reeked of smoke and god knows what else. The room was small, the bed was uncomfortable, and the resident bums stand outside their door and gawk at you as if the place was Bum Mansion and you shouldn't be there (they'd be right!). The internet is NOT free, the kitchenettes are a joke, and the room was dark, dank and stuffy even with the air on. Do not give this insulting dump our business! After one night I relocated to Americas Best Value Inn for a CHEAPER nightly rate and it was worlds and worlds better!! The address is 8345 West Freeway, Fort Worth, TX 76116.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>Where do I begin? The employees were so incompetent! I made three calls to the front desk and was told I would be called back in fifteen minutes every time, finally after waiting two hours I drove to the office expecting them to be busy but there wasn't a customer in sight, they were talking. And RUDE!! The Ghetto-Queen attitude one girl in particular had towards customers was unbelievable and insulting. The rooms may be cheap, but they're not cheap enough for what you get. Our "non-smoking" room reeked of smoke and god knows what else. The room was small, the bed was uncomfortable, and the resident bums stand outside their door and gawk at you as if the place was Bum Mansion and you shouldn't be there (they'd be right!). The internet is NOT free, the kitchenettes are a joke, and the room was dark, dank and stuffy even with the air on. Do not give this insulting dump our business! After one night I relocated to Americas Best Value Inn for a CHEAPER nightly rate and it was worlds and worlds better!! The address is 8345 West Freeway, Fort Worth, TX 76116.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r67003908-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>67003908</t>
+  </si>
+  <si>
+    <t>06/09/2010</t>
+  </si>
+  <si>
+    <t>WORST "HOTEL" EVERRRRR!!!!!!!!</t>
+  </si>
+  <si>
+    <t>I'm not sure which rung of the inferno this place exists on but it must be pretty far down the ladder. This place is awful! My girlfriend and I were making our way across country and decided to save some cash while staying in Fort Worth, TX. This "hotel" was the worst hotel I have ever stayed at. The reason why it was so bad was because it is and "Extended Stay" hotel which also doubles as a Section 8 welfare housing complex. I wish i had known this going in.The major downsides are:The room smelled like smoke and mold. You could cut it with a knife. The comforter had cigarette burns in it.The whole carpet was wet. As if the person before us ran the sink all night long.There were roaches in the kitchen cabinet and bugs flying around in the room.The towels were filthy and had black stains on themThere was graffiti INSIDE the room!Some of the residents will ask you for money in the parking lot.I didn't get a wink of sleep the whole night. Doors were slamming and people were coming and going as the party raged on. Also, the front desk doesn't answer the phone. I lasted 6 hours which was way more than I should have. If you want to stay in this hotel bring a gun.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>I'm not sure which rung of the inferno this place exists on but it must be pretty far down the ladder. This place is awful! My girlfriend and I were making our way across country and decided to save some cash while staying in Fort Worth, TX. This "hotel" was the worst hotel I have ever stayed at. The reason why it was so bad was because it is and "Extended Stay" hotel which also doubles as a Section 8 welfare housing complex. I wish i had known this going in.The major downsides are:The room smelled like smoke and mold. You could cut it with a knife. The comforter had cigarette burns in it.The whole carpet was wet. As if the person before us ran the sink all night long.There were roaches in the kitchen cabinet and bugs flying around in the room.The towels were filthy and had black stains on themThere was graffiti INSIDE the room!Some of the residents will ask you for money in the parking lot.I didn't get a wink of sleep the whole night. Doors were slamming and people were coming and going as the party raged on. Also, the front desk doesn't answer the phone. I lasted 6 hours which was way more than I should have. If you want to stay in this hotel bring a gun.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r66623711-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>66623711</t>
+  </si>
+  <si>
+    <t>06/06/2010</t>
+  </si>
+  <si>
+    <t>STAY AWAY!! Worst place ever!</t>
+  </si>
+  <si>
+    <t>We stayed here for one night because we had our home heavily fumigated and I did not want to take my son there because he was having respiratory issues. This place was VERY close to home and looked nice from the outside so we decided to get a non-smoking room for the night while our home aired out. BIG MISTAKE! After dark there are very seedy looking people around and a LOT of late night activity. I did not feel safe there with my children AT ALL. Also, the room REEKED of smoke! I think we would have been better off breathing in the fumes at our house! What a joke! It is filthy as well! The stairwells reeked of garbage and everything was sticky like sodas, etc had spilled and were left for months. It did not appear the public trash had been emptied in days as there was trash piled up everywhere. The room was dirty as well! The carpet had black stains all over it and it was apparent no one had tried to shampoo it. The nightstand was dirty with all kinds of stains. Truly the WORST hotel experience I have EVER had. This place is perfect for drug dealers or hookers. Anyone else, take my advice and DO NOT stay here. If you do stay here,I would advise not bringing your kids and packing heat.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for one night because we had our home heavily fumigated and I did not want to take my son there because he was having respiratory issues. This place was VERY close to home and looked nice from the outside so we decided to get a non-smoking room for the night while our home aired out. BIG MISTAKE! After dark there are very seedy looking people around and a LOT of late night activity. I did not feel safe there with my children AT ALL. Also, the room REEKED of smoke! I think we would have been better off breathing in the fumes at our house! What a joke! It is filthy as well! The stairwells reeked of garbage and everything was sticky like sodas, etc had spilled and were left for months. It did not appear the public trash had been emptied in days as there was trash piled up everywhere. The room was dirty as well! The carpet had black stains all over it and it was apparent no one had tried to shampoo it. The nightstand was dirty with all kinds of stains. Truly the WORST hotel experience I have EVER had. This place is perfect for drug dealers or hookers. Anyone else, take my advice and DO NOT stay here. If you do stay here,I would advise not bringing your kids and packing heat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r63866005-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>63866005</t>
+  </si>
+  <si>
+    <t>05/11/2010</t>
+  </si>
+  <si>
+    <t>AVOID AT ALL COST</t>
+  </si>
+  <si>
+    <t>I am currently staying at crossland because my house sold quick and the new one is not ready.  I chose the location from the internet reviews, boy were they wrong.  First off I am staying with my two children and never have I been so disturbed by what goes on there.  The late night traffic in and out of a few rooms cause major noise and concerns because people seem to come and go quickly and frequently.  There are "strange" men hanging around the parking lot at all hours.  I have had to call the police once on a physical domestic disturbance under me. People constantly hanging around the walkways and looking in cars.I would have left the first night, but they manage to get you to pay a month at a time to get a discount.  Since I can not afford to leave I have purchased a fire arm and carry it from my car to the room and keep it accessible in the room.PLEASE for your safety if you have children, STAY AWAYMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>I am currently staying at crossland because my house sold quick and the new one is not ready.  I chose the location from the internet reviews, boy were they wrong.  First off I am staying with my two children and never have I been so disturbed by what goes on there.  The late night traffic in and out of a few rooms cause major noise and concerns because people seem to come and go quickly and frequently.  There are "strange" men hanging around the parking lot at all hours.  I have had to call the police once on a physical domestic disturbance under me. People constantly hanging around the walkways and looking in cars.I would have left the first night, but they manage to get you to pay a month at a time to get a discount.  Since I can not afford to leave I have purchased a fire arm and carry it from my car to the room and keep it accessible in the room.PLEASE for your safety if you have children, STAY AWAYMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r34861752-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>34861752</t>
+  </si>
+  <si>
+    <t>07/15/2009</t>
+  </si>
+  <si>
+    <t>Okay place to stay for someone that smokes!!!</t>
+  </si>
+  <si>
+    <t>It's an okay place to stay for someone that smokes. We stayed there for two nights and we didn't run into any problems, noise wise. It's a nice place to stay and for what we payed, I was okay with it. The only problem we had was the smell. We asked for non-smoking, well, the room smelled like a cigar was living in there. Horrible!!! We had to go to Wal-Mart and buy an Automatic Spray Air Wick freshener and a Febreze spray. I sprayed everything down and had the automatic spray freshener set for every 9 minutes. Their office can be very misleading. When we first drove up to the place, which was not hard to find and at a nice neighborhood. Everywhere we went was withing less than 20 minutes. Anyway, when we first drove up to the hotel and went into their office to check in, their office was very clean and nice. And it even smelled really good and fresh. The staff was very nice and got us in and out. Well, as soon as we walked into our room, bam!!!! You could not miss the SMOKEY smell. I have bad allergies so I'm sure that the rooms next door to us could hear me cough like crazy. I sounded like I was shocking, honestly! Like I said, it was a nice place to stay for what we paid, but the smell is the only thing...It's an okay place to stay for someone that smokes. We stayed there for two nights and we didn't run into any problems, noise wise. It's a nice place to stay and for what we payed, I was okay with it. The only problem we had was the smell. We asked for non-smoking, well, the room smelled like a cigar was living in there. Horrible!!! We had to go to Wal-Mart and buy an Automatic Spray Air Wick freshener and a Febreze spray. I sprayed everything down and had the automatic spray freshener set for every 9 minutes. Their office can be very misleading. When we first drove up to the place, which was not hard to find and at a nice neighborhood. Everywhere we went was withing less than 20 minutes. Anyway, when we first drove up to the hotel and went into their office to check in, their office was very clean and nice. And it even smelled really good and fresh. The staff was very nice and got us in and out. Well, as soon as we walked into our room, bam!!!! You could not miss the SMOKEY smell. I have bad allergies so I'm sure that the rooms next door to us could hear me cough like crazy. I sounded like I was shocking, honestly! Like I said, it was a nice place to stay for what we paid, but the smell is the only thing that ruined everything. So if you don't mind the smokey smell or you are a smoker, than this is your place to stay. I don't recommend you bringing your children here if their health matters to you.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>It's an okay place to stay for someone that smokes. We stayed there for two nights and we didn't run into any problems, noise wise. It's a nice place to stay and for what we payed, I was okay with it. The only problem we had was the smell. We asked for non-smoking, well, the room smelled like a cigar was living in there. Horrible!!! We had to go to Wal-Mart and buy an Automatic Spray Air Wick freshener and a Febreze spray. I sprayed everything down and had the automatic spray freshener set for every 9 minutes. Their office can be very misleading. When we first drove up to the place, which was not hard to find and at a nice neighborhood. Everywhere we went was withing less than 20 minutes. Anyway, when we first drove up to the hotel and went into their office to check in, their office was very clean and nice. And it even smelled really good and fresh. The staff was very nice and got us in and out. Well, as soon as we walked into our room, bam!!!! You could not miss the SMOKEY smell. I have bad allergies so I'm sure that the rooms next door to us could hear me cough like crazy. I sounded like I was shocking, honestly! Like I said, it was a nice place to stay for what we paid, but the smell is the only thing...It's an okay place to stay for someone that smokes. We stayed there for two nights and we didn't run into any problems, noise wise. It's a nice place to stay and for what we payed, I was okay with it. The only problem we had was the smell. We asked for non-smoking, well, the room smelled like a cigar was living in there. Horrible!!! We had to go to Wal-Mart and buy an Automatic Spray Air Wick freshener and a Febreze spray. I sprayed everything down and had the automatic spray freshener set for every 9 minutes. Their office can be very misleading. When we first drove up to the place, which was not hard to find and at a nice neighborhood. Everywhere we went was withing less than 20 minutes. Anyway, when we first drove up to the hotel and went into their office to check in, their office was very clean and nice. And it even smelled really good and fresh. The staff was very nice and got us in and out. Well, as soon as we walked into our room, bam!!!! You could not miss the SMOKEY smell. I have bad allergies so I'm sure that the rooms next door to us could hear me cough like crazy. I sounded like I was shocking, honestly! Like I said, it was a nice place to stay for what we paid, but the smell is the only thing that ruined everything. So if you don't mind the smokey smell or you are a smoker, than this is your place to stay. I don't recommend you bringing your children here if their health matters to you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r24875142-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>24875142</t>
+  </si>
+  <si>
+    <t>02/20/2009</t>
+  </si>
+  <si>
+    <t>It was all good at Crossland</t>
+  </si>
+  <si>
+    <t>I had a wonderful stay at the Crossland Studios ! The room was great, everything worked and it was one of my better experiences in a hotel. Everyone was friendly and helpful. They really went the extra mile for me. We ran late one morning and had not paid to extend for another day which can cause serious problems at other places, well the staff didn't  even blink and everything was just as we left it upon our return.</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r14159977-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>14159977</t>
@@ -1116,10 +1608,7 @@
     <t>February 2008</t>
   </si>
   <si>
-    <t>DanoHB</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r10013027-Crossland_Economy_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109178-r10013027-HomeTowne_Studios_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
     <t>10013027</t>
@@ -1642,55 +2131,51 @@
       <c r="A2" t="n">
         <v>37422</v>
       </c>
-      <c r="B2" t="n">
-        <v>127624</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="n">
-        <v>3</v>
-      </c>
-      <c r="R2" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
@@ -1699,81 +2184,77 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37422</v>
       </c>
-      <c r="B3" t="n">
-        <v>78493</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
-      </c>
       <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -1786,226 +2267,220 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>68</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>69</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>70</v>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" t="s"/>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37422</v>
       </c>
-      <c r="B5" t="n">
-        <v>127625</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
         <v>74</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>75</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>76</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>77</v>
       </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37422</v>
       </c>
-      <c r="B6" t="n">
-        <v>127626</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
         <v>82</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>83</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>84</v>
       </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37422</v>
       </c>
-      <c r="B7" t="n">
-        <v>127627</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
         <v>89</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>90</v>
       </c>
-      <c r="J7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L7" t="s">
-        <v>93</v>
-      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2019,180 +2494,168 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37422</v>
       </c>
-      <c r="B8" t="n">
-        <v>127628</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" t="s">
         <v>96</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" t="s">
-        <v>99</v>
-      </c>
-      <c r="L8" t="s">
-        <v>100</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>101</v>
-      </c>
-      <c r="O8" t="s">
-        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>3</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37422</v>
       </c>
-      <c r="B9" t="n">
-        <v>127629</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37422</v>
       </c>
-      <c r="B10" t="n">
-        <v>127630</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2206,54 +2669,50 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37422</v>
       </c>
-      <c r="B11" t="n">
-        <v>44593</v>
-      </c>
-      <c r="C11" t="s">
-        <v>118</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2267,54 +2726,50 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37422</v>
       </c>
-      <c r="B12" t="n">
-        <v>127631</v>
-      </c>
-      <c r="C12" t="s">
-        <v>125</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2328,7 +2783,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
@@ -2341,111 +2796,101 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="O13" t="s">
-        <v>94</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>1</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37422</v>
       </c>
-      <c r="B14" t="n">
-        <v>40909</v>
-      </c>
-      <c r="C14" t="s">
-        <v>137</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
         <v>1</v>
@@ -2456,115 +2901,113 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37422</v>
       </c>
-      <c r="B15" t="n">
-        <v>127632</v>
-      </c>
-      <c r="C15" t="s">
-        <v>145</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>94</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37422</v>
       </c>
-      <c r="B16" t="n">
-        <v>127633</v>
-      </c>
-      <c r="C16" t="s">
-        <v>152</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J16" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2578,187 +3021,171 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37422</v>
       </c>
-      <c r="B17" t="n">
-        <v>127634</v>
-      </c>
-      <c r="C17" t="s">
-        <v>159</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>2</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>165</v>
-      </c>
-      <c r="X17" t="s">
-        <v>166</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37422</v>
       </c>
-      <c r="B18" t="n">
-        <v>127635</v>
-      </c>
-      <c r="C18" t="s">
-        <v>168</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="K18" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
+      <c r="N18" t="s">
+        <v>122</v>
+      </c>
+      <c r="O18" t="s">
+        <v>60</v>
+      </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="X18" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="Y18" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37422</v>
       </c>
-      <c r="B19" t="n">
-        <v>72703</v>
-      </c>
-      <c r="C19" t="s">
-        <v>177</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="L19" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>183</v>
-      </c>
-      <c r="O19" t="s">
-        <v>94</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
@@ -2768,135 +3195,121 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>166</v>
+      </c>
+      <c r="X19" t="s">
+        <v>167</v>
+      </c>
       <c r="Y19" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37422</v>
       </c>
-      <c r="B20" t="n">
-        <v>127636</v>
-      </c>
-      <c r="C20" t="s">
-        <v>184</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="J20" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="K20" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="O20" t="s">
-        <v>87</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>191</v>
-      </c>
-      <c r="X20" t="s">
-        <v>192</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37422</v>
       </c>
-      <c r="B21" t="n">
-        <v>127633</v>
-      </c>
-      <c r="C21" t="s">
-        <v>159</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="J21" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="O21" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
@@ -2906,138 +3319,134 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>181</v>
+      </c>
+      <c r="X21" t="s">
+        <v>182</v>
+      </c>
       <c r="Y21" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37422</v>
       </c>
-      <c r="B22" t="n">
-        <v>127637</v>
-      </c>
-      <c r="C22" t="s">
-        <v>201</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="J22" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="K22" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="O22" t="s">
-        <v>94</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37422</v>
       </c>
-      <c r="B23" t="n">
-        <v>127638</v>
-      </c>
-      <c r="C23" t="s">
-        <v>209</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="J23" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="K23" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="L23" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
-      </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>196</v>
+      </c>
+      <c r="O23" t="s">
+        <v>96</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>4</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24">
@@ -3050,49 +3459,49 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="J24" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="K24" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>220</v>
-      </c>
-      <c r="O24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
       <c r="Q24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3100,108 +3509,123 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37422</v>
       </c>
-      <c r="B25" t="n">
-        <v>28576</v>
-      </c>
-      <c r="C25" t="s">
-        <v>222</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>224</v>
-      </c>
-      <c r="J25" t="s"/>
-      <c r="K25" t="s"/>
-      <c r="L25" t="s"/>
-      <c r="M25" t="s"/>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
+        <v>204</v>
+      </c>
+      <c r="J25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K25" t="s">
+        <v>206</v>
+      </c>
+      <c r="L25" t="s">
+        <v>207</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>208</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37422</v>
       </c>
-      <c r="B26" t="n">
-        <v>1820</v>
-      </c>
-      <c r="C26" t="s">
-        <v>225</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="J26" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="K26" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="O26" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3209,66 +3633,60 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37422</v>
       </c>
-      <c r="B27" t="n">
-        <v>3925</v>
-      </c>
-      <c r="C27" t="s">
-        <v>233</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="J27" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="K27" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="L27" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="O27" t="s">
-        <v>64</v>
+        <v>223</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3276,62 +3694,58 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37422</v>
       </c>
-      <c r="B28" t="n">
-        <v>127639</v>
-      </c>
-      <c r="C28" t="s">
-        <v>240</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="J28" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="K28" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="L28" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
-      <c r="P28" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>222</v>
+      </c>
+      <c r="O28" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
@@ -3343,45 +3757,41 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37422</v>
       </c>
-      <c r="B29" t="n">
-        <v>127640</v>
-      </c>
-      <c r="C29" t="s">
-        <v>246</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="J29" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="K29" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
@@ -3395,14 +3805,14 @@
         <v>1</v>
       </c>
       <c r="R29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3410,62 +3820,58 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37422</v>
       </c>
-      <c r="B30" t="n">
-        <v>127641</v>
-      </c>
-      <c r="C30" t="s">
-        <v>252</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="J30" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="K30" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="L30" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s"/>
       <c r="O30" t="s"/>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -3474,160 +3880,148 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>258</v>
-      </c>
-      <c r="X30" t="s">
-        <v>259</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37422</v>
       </c>
-      <c r="B31" t="n">
-        <v>37702</v>
-      </c>
-      <c r="C31" t="s">
-        <v>261</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="J31" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="K31" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
-      </c>
-      <c r="N31" t="s">
-        <v>267</v>
-      </c>
-      <c r="O31" t="s">
-        <v>94</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
       <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
         <v>4</v>
       </c>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
       <c r="R31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="X31" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="Y31" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37422</v>
       </c>
-      <c r="B32" t="n">
-        <v>127642</v>
-      </c>
-      <c r="C32" t="s">
-        <v>271</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="J32" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="K32" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>254</v>
+      </c>
+      <c r="X32" t="s">
+        <v>255</v>
+      </c>
       <c r="Y32" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33">
@@ -3640,49 +4034,53 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="J33" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="K33" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
-      </c>
-      <c r="N33" t="s"/>
-      <c r="O33" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>262</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
       <c r="P33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3690,116 +4088,104 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37422</v>
       </c>
-      <c r="B34" t="n">
-        <v>1826</v>
-      </c>
-      <c r="C34" t="s">
-        <v>283</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="J34" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="K34" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="L34" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s"/>
       <c r="O34" t="s"/>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>289</v>
-      </c>
-      <c r="X34" t="s">
-        <v>290</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37422</v>
       </c>
-      <c r="B35" t="n">
-        <v>127643</v>
-      </c>
-      <c r="C35" t="s">
-        <v>292</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="J35" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="K35" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
@@ -3826,61 +4212,53 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="X35" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="Y35" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37422</v>
       </c>
-      <c r="B36" t="n">
-        <v>127644</v>
-      </c>
-      <c r="C36" t="s">
-        <v>301</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="J36" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="K36" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="L36" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="s">
-        <v>307</v>
-      </c>
-      <c r="O36" t="s">
-        <v>64</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
       <c r="P36" t="n">
         <v>5</v>
       </c>
@@ -3895,134 +4273,130 @@
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>281</v>
+      </c>
+      <c r="X36" t="s">
+        <v>282</v>
+      </c>
       <c r="Y36" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37422</v>
       </c>
-      <c r="B37" t="n">
-        <v>127645</v>
-      </c>
-      <c r="C37" t="s">
-        <v>309</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="J37" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="K37" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="L37" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="O37" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="P37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>316</v>
-      </c>
-      <c r="X37" t="s">
-        <v>317</v>
-      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37422</v>
       </c>
-      <c r="B38" t="n">
-        <v>127646</v>
-      </c>
-      <c r="C38" t="s">
-        <v>319</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="J38" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="K38" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
+      <c r="N38" t="s">
+        <v>296</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
       <c r="P38" t="n">
         <v>5</v>
       </c>
@@ -4043,132 +4417,126 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="X38" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="Y38" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37422</v>
       </c>
-      <c r="B39" t="n">
-        <v>127647</v>
-      </c>
-      <c r="C39" t="s">
-        <v>328</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="J39" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="K39" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="L39" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>334</v>
+        <v>296</v>
       </c>
       <c r="O39" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="X39" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="Y39" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37422</v>
       </c>
-      <c r="B40" t="n">
-        <v>127648</v>
-      </c>
-      <c r="C40" t="s">
-        <v>338</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="J40" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="K40" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="L40" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
+      <c r="N40" t="s">
+        <v>313</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
       <c r="P40" t="n">
         <v>5</v>
       </c>
@@ -4189,66 +4557,62 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="X40" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="Y40" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37422</v>
       </c>
-      <c r="B41" t="n">
-        <v>127649</v>
-      </c>
-      <c r="C41" t="s">
-        <v>347</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="J41" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="K41" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="L41" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="P41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
         <v>3</v>
@@ -4258,161 +4622,1947 @@
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>344</v>
-      </c>
-      <c r="X41" t="s">
-        <v>345</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37422</v>
       </c>
-      <c r="B42" t="n">
-        <v>127650</v>
-      </c>
-      <c r="C42" t="s">
-        <v>355</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="J42" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="K42" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="L42" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>361</v>
+        <v>322</v>
       </c>
       <c r="O42" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="P42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
         <v>3</v>
       </c>
       <c r="S42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>329</v>
+      </c>
+      <c r="X42" t="s">
+        <v>330</v>
+      </c>
       <c r="Y42" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>37422</v>
       </c>
-      <c r="B43" t="n">
-        <v>127651</v>
-      </c>
-      <c r="C43" t="s">
-        <v>362</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="J43" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="K43" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="L43" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>368</v>
+        <v>289</v>
       </c>
       <c r="O43" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>337</v>
+      </c>
+      <c r="X43" t="s">
+        <v>338</v>
+      </c>
       <c r="Y43" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>340</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>341</v>
+      </c>
+      <c r="J44" t="s">
+        <v>342</v>
+      </c>
+      <c r="K44" t="s">
+        <v>343</v>
+      </c>
+      <c r="L44" t="s">
+        <v>344</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>289</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>337</v>
+      </c>
+      <c r="X44" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>346</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>347</v>
+      </c>
+      <c r="J45" t="s">
+        <v>348</v>
+      </c>
+      <c r="K45" t="s">
+        <v>349</v>
+      </c>
+      <c r="L45" t="s">
+        <v>350</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>351</v>
+      </c>
+      <c r="O45" t="s">
+        <v>70</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>352</v>
+      </c>
+      <c r="X45" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>355</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>356</v>
+      </c>
+      <c r="J46" t="s">
+        <v>357</v>
+      </c>
+      <c r="K46" t="s">
+        <v>358</v>
+      </c>
+      <c r="L46" t="s">
+        <v>359</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>360</v>
+      </c>
+      <c r="X46" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>363</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>364</v>
+      </c>
+      <c r="J47" t="s">
+        <v>365</v>
+      </c>
+      <c r="K47" t="s">
+        <v>366</v>
+      </c>
+      <c r="L47" t="s">
+        <v>367</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>368</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
         <v>369</v>
+      </c>
+      <c r="X47" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>372</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>373</v>
+      </c>
+      <c r="J48" t="s">
+        <v>374</v>
+      </c>
+      <c r="K48" t="s">
+        <v>375</v>
+      </c>
+      <c r="L48" t="s">
+        <v>376</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>368</v>
+      </c>
+      <c r="O48" t="s">
+        <v>70</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>377</v>
+      </c>
+      <c r="X48" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>380</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>381</v>
+      </c>
+      <c r="J49" t="s">
+        <v>382</v>
+      </c>
+      <c r="K49" t="s">
+        <v>383</v>
+      </c>
+      <c r="L49" t="s">
+        <v>384</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>385</v>
+      </c>
+      <c r="X49" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>388</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>389</v>
+      </c>
+      <c r="J50" t="s">
+        <v>390</v>
+      </c>
+      <c r="K50" t="s">
+        <v>391</v>
+      </c>
+      <c r="L50" t="s">
+        <v>392</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>393</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>394</v>
+      </c>
+      <c r="X50" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>397</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>398</v>
+      </c>
+      <c r="J51" t="s">
+        <v>399</v>
+      </c>
+      <c r="K51" t="s">
+        <v>400</v>
+      </c>
+      <c r="L51" t="s">
+        <v>401</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>402</v>
+      </c>
+      <c r="X51" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>405</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>406</v>
+      </c>
+      <c r="J52" t="s">
+        <v>407</v>
+      </c>
+      <c r="K52" t="s">
+        <v>408</v>
+      </c>
+      <c r="L52" t="s">
+        <v>409</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>410</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>402</v>
+      </c>
+      <c r="X52" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>412</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>413</v>
+      </c>
+      <c r="J53" t="s">
+        <v>414</v>
+      </c>
+      <c r="K53" t="s">
+        <v>415</v>
+      </c>
+      <c r="L53" t="s">
+        <v>416</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>410</v>
+      </c>
+      <c r="O53" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>417</v>
+      </c>
+      <c r="X53" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>420</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>421</v>
+      </c>
+      <c r="J54" t="s">
+        <v>422</v>
+      </c>
+      <c r="K54" t="s">
+        <v>423</v>
+      </c>
+      <c r="L54" t="s">
+        <v>424</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>410</v>
+      </c>
+      <c r="O54" t="s">
+        <v>223</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>425</v>
+      </c>
+      <c r="X54" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>428</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>429</v>
+      </c>
+      <c r="J55" t="s">
+        <v>430</v>
+      </c>
+      <c r="K55" t="s">
+        <v>431</v>
+      </c>
+      <c r="L55" t="s">
+        <v>432</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>433</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>434</v>
+      </c>
+      <c r="X55" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>437</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>438</v>
+      </c>
+      <c r="J56" t="s">
+        <v>439</v>
+      </c>
+      <c r="K56" t="s">
+        <v>440</v>
+      </c>
+      <c r="L56" t="s">
+        <v>441</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>442</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>443</v>
+      </c>
+      <c r="X56" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>446</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>447</v>
+      </c>
+      <c r="J57" t="s">
+        <v>439</v>
+      </c>
+      <c r="K57" t="s">
+        <v>448</v>
+      </c>
+      <c r="L57" t="s">
+        <v>449</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>433</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>443</v>
+      </c>
+      <c r="X57" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>451</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>452</v>
+      </c>
+      <c r="J58" t="s">
+        <v>439</v>
+      </c>
+      <c r="K58" t="s">
+        <v>453</v>
+      </c>
+      <c r="L58" t="s">
+        <v>454</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>443</v>
+      </c>
+      <c r="X58" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>456</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>457</v>
+      </c>
+      <c r="J59" t="s">
+        <v>458</v>
+      </c>
+      <c r="K59" t="s">
+        <v>459</v>
+      </c>
+      <c r="L59" t="s">
+        <v>460</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>461</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>462</v>
+      </c>
+      <c r="X59" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>465</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>466</v>
+      </c>
+      <c r="J60" t="s">
+        <v>467</v>
+      </c>
+      <c r="K60" t="s">
+        <v>468</v>
+      </c>
+      <c r="L60" t="s">
+        <v>469</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>470</v>
+      </c>
+      <c r="O60" t="s">
+        <v>96</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>471</v>
+      </c>
+      <c r="X60" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>474</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>475</v>
+      </c>
+      <c r="J61" t="s">
+        <v>476</v>
+      </c>
+      <c r="K61" t="s">
+        <v>477</v>
+      </c>
+      <c r="L61" t="s">
+        <v>478</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>480</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>481</v>
+      </c>
+      <c r="J62" t="s">
+        <v>482</v>
+      </c>
+      <c r="K62" t="s">
+        <v>483</v>
+      </c>
+      <c r="L62" t="s">
+        <v>484</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>485</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>487</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>488</v>
+      </c>
+      <c r="J63" t="s">
+        <v>489</v>
+      </c>
+      <c r="K63" t="s">
+        <v>490</v>
+      </c>
+      <c r="L63" t="s">
+        <v>491</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>492</v>
+      </c>
+      <c r="O63" t="s">
+        <v>70</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>494</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>495</v>
+      </c>
+      <c r="J64" t="s">
+        <v>496</v>
+      </c>
+      <c r="K64" t="s">
+        <v>497</v>
+      </c>
+      <c r="L64" t="s">
+        <v>498</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>492</v>
+      </c>
+      <c r="O64" t="s">
+        <v>96</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>500</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>501</v>
+      </c>
+      <c r="J65" t="s">
+        <v>502</v>
+      </c>
+      <c r="K65" t="s">
+        <v>503</v>
+      </c>
+      <c r="L65" t="s">
+        <v>504</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>505</v>
+      </c>
+      <c r="O65" t="s">
+        <v>96</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>507</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>508</v>
+      </c>
+      <c r="J66" t="s">
+        <v>509</v>
+      </c>
+      <c r="K66" t="s">
+        <v>510</v>
+      </c>
+      <c r="L66" t="s">
+        <v>511</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>512</v>
+      </c>
+      <c r="O66" t="s">
+        <v>70</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>514</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>515</v>
+      </c>
+      <c r="J67" t="s">
+        <v>516</v>
+      </c>
+      <c r="K67" t="s">
+        <v>517</v>
+      </c>
+      <c r="L67" t="s">
+        <v>518</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>519</v>
+      </c>
+      <c r="O67" t="s">
+        <v>70</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>520</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>521</v>
+      </c>
+      <c r="J68" t="s">
+        <v>522</v>
+      </c>
+      <c r="K68" t="s">
+        <v>523</v>
+      </c>
+      <c r="L68" t="s">
+        <v>524</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>525</v>
+      </c>
+      <c r="O68" t="s">
+        <v>52</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>37422</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>526</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>527</v>
+      </c>
+      <c r="J69" t="s">
+        <v>528</v>
+      </c>
+      <c r="K69" t="s">
+        <v>529</v>
+      </c>
+      <c r="L69" t="s">
+        <v>530</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>531</v>
+      </c>
+      <c r="O69" t="s">
+        <v>52</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>
